--- a/Spreadsheets/Job.xlsx
+++ b/Spreadsheets/Job.xlsx
@@ -12,7 +12,7 @@
     <sheet sheetId="1" r:id="rId1" name="Job"/>
   </sheets>
   <definedNames>
-    <definedName name="Job">'Job'!$A$1:$D$44</definedName>
+    <definedName name="Job">'Job'!$A$1:$D$490</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A5" sqref="A5"/>
@@ -464,12 +464,12 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Ass Professor</t>
+          <t>A/C Foreman</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Ass Professor</t>
+          <t>A/C Foreman</t>
         </is>
       </c>
       <c r="D3" s="0">
@@ -484,12 +484,12 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Assist Professor</t>
+          <t>Academic Achievement Advisor</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Assist Professor</t>
+          <t>Academic Achievement Advisor</t>
         </is>
       </c>
       <c r="D4" s="0">
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Assistant Professor</t>
+          <t>Academic Achievement Manager</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Assistant Professor</t>
+          <t>Academic Achievement Manager</t>
         </is>
       </c>
       <c r="D5" s="0">
@@ -524,12 +524,12 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Assitant Professor</t>
+          <t>Academic Advising Coordinator</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Assitant Professor</t>
+          <t>Academic Advising Coordinator</t>
         </is>
       </c>
       <c r="D6" s="0">
@@ -544,12 +544,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Assoc Professor</t>
+          <t>Academic Advisor</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Assoc Professor</t>
+          <t>Academic Advisor</t>
         </is>
       </c>
       <c r="D7" s="0">
@@ -564,12 +564,12 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Associate Dean</t>
+          <t>Academic Analyst</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Associate Dean</t>
+          <t>Academic Analyst</t>
         </is>
       </c>
       <c r="D8" s="0">
@@ -584,12 +584,12 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Associate Professor</t>
+          <t>Academic Business Admin</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Associate Professor</t>
+          <t>Academic Business Admin</t>
         </is>
       </c>
       <c r="D9" s="0">
@@ -604,12 +604,12 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Assof Professor</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>Assof Professor</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="D10" s="0">
@@ -624,12 +624,12 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Asst Professor</t>
+          <t>Accounts Payable Accountant</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>Asst Professor</t>
+          <t>Accounts Payable Accountant</t>
         </is>
       </c>
       <c r="D11" s="0">
@@ -644,12 +644,12 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Exec in Residence</t>
+          <t>Accounts Payable Supervisor</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>Exec in Residence</t>
+          <t>Accounts Payable Supervisor</t>
         </is>
       </c>
       <c r="D12" s="0">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Executive</t>
+          <t>Achievement Acad</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>Executive</t>
+          <t>Achievement Acad</t>
         </is>
       </c>
       <c r="D13" s="0">
@@ -684,12 +684,12 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Fac Associate</t>
+          <t>Acquistn.&amp; Resr. Mgt.Librarian</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>Fac Associate</t>
+          <t>Acquistn.&amp; Resr. Mgt.Librarian</t>
         </is>
       </c>
       <c r="D14" s="0">
@@ -704,12 +704,12 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Faculty Fellow</t>
+          <t>Acting Chancellor</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>Faculty Fellow</t>
+          <t>Acting Chancellor</t>
         </is>
       </c>
       <c r="D15" s="0">
@@ -724,12 +724,12 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Faculty Fellow&amp; Visit Professor</t>
+          <t>Acting Provost</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>Faculty Fellow&amp; Visit Professor</t>
+          <t>Acting Provost</t>
         </is>
       </c>
       <c r="D16" s="0">
@@ -744,12 +744,12 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Instructor</t>
+          <t>Adjunct Fcaulty</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>Instructor</t>
+          <t>Adjunct Fcaulty</t>
         </is>
       </c>
       <c r="D17" s="0">
@@ -764,12 +764,12 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Administrative  Assistant</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Administrative  Assistant</t>
         </is>
       </c>
       <c r="D18" s="0">
@@ -784,12 +784,12 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="D19" s="0">
@@ -804,12 +804,12 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Senior Instructor</t>
+          <t>Administrative Coordinator</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>Senior Instructor</t>
+          <t>Administrative Coordinator</t>
         </is>
       </c>
       <c r="D20" s="0">
@@ -824,12 +824,12 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Senior Lecturer</t>
+          <t>Administrative Manager</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>Senior Lecturer</t>
+          <t>Administrative Manager</t>
         </is>
       </c>
       <c r="D21" s="0">
@@ -844,12 +844,12 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>Visit Assist Professor</t>
+          <t>Admissions Assistant</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>Visit Assist Professor</t>
+          <t>Admissions Assistant</t>
         </is>
       </c>
       <c r="D22" s="0">
@@ -864,12 +864,12 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>Visit Assistant Professor</t>
+          <t>Admissions Manager</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>Visit Assistant Professor</t>
+          <t>Admissions Manager</t>
         </is>
       </c>
       <c r="D23" s="0">
@@ -884,12 +884,12 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Visit Assoc Professor</t>
+          <t>Admissions&amp;Testing Coordinator</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>Visit Assoc Professor</t>
+          <t>Admissions&amp;Testing Coordinator</t>
         </is>
       </c>
       <c r="D24" s="0">
@@ -904,12 +904,12 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Visit Associate Professor</t>
+          <t>Aluminium Technician</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>Visit Associate Professor</t>
+          <t>Aluminium Technician</t>
         </is>
       </c>
       <c r="D25" s="0">
@@ -924,12 +924,12 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assis Professor</t>
+          <t>Aluminum Technician</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assis Professor</t>
+          <t>Aluminum Technician</t>
         </is>
       </c>
       <c r="D26" s="0">
@@ -944,12 +944,12 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assist Professor</t>
+          <t>AP Accountant</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assist Professor</t>
+          <t>AP Accountant</t>
         </is>
       </c>
       <c r="D27" s="0">
@@ -964,12 +964,12 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assistant Professor</t>
+          <t>AP Supervisor</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assistant Professor</t>
+          <t>AP Supervisor</t>
         </is>
       </c>
       <c r="D28" s="0">
@@ -984,12 +984,12 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assit Professor</t>
+          <t>Appliance Technician</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assit Professor</t>
+          <t>Appliance Technician</t>
         </is>
       </c>
       <c r="D29" s="0">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assit. Professor</t>
+          <t>Application Analyst</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assit. Professor</t>
+          <t>Application Analyst</t>
         </is>
       </c>
       <c r="D30" s="0">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assoc Professor</t>
+          <t>Architect</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>Visiting Assoc Professor</t>
+          <t>Architect</t>
         </is>
       </c>
       <c r="D31" s="0">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Visiting Associ Professor</t>
+          <t>Asist.toChancellor</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>Visiting Associ Professor</t>
+          <t>Asist.toChancellor</t>
         </is>
       </c>
       <c r="D32" s="0">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>Visiting Asst Professor</t>
+          <t>Ass Professor</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>Visiting Asst Professor</t>
+          <t>Ass Professor</t>
         </is>
       </c>
       <c r="D33" s="0">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Visiting Asst. Professor</t>
+          <t>Asset Controller</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>Visiting Asst. Professor</t>
+          <t>Asset Controller</t>
         </is>
       </c>
       <c r="D34" s="0">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>Visiting Extens. Professor</t>
+          <t>Assist Activities Coordinator</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>Visiting Extens. Professor</t>
+          <t>Assist Activities Coordinator</t>
         </is>
       </c>
       <c r="D35" s="0">
@@ -1124,12 +1124,12 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>Visiting Instructor</t>
+          <t>Assist Professor</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>Visiting Instructor</t>
+          <t>Assist Professor</t>
         </is>
       </c>
       <c r="D36" s="0">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>Visiting Lecturer</t>
+          <t>Assist. Activities Coordinator</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>Visiting Lecturer</t>
+          <t>Assist. Activities Coordinator</t>
         </is>
       </c>
       <c r="D37" s="0">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>Visiting Professor</t>
+          <t>Assistant Budget Analyst</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>Visiting Professor</t>
+          <t>Assistant Budget Analyst</t>
         </is>
       </c>
       <c r="D38" s="0">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>Visiting Senior Urban Planner</t>
+          <t>Assistant Coach</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>Visiting Senior Urban Planner</t>
+          <t>Assistant Coach</t>
         </is>
       </c>
       <c r="D39" s="0">
@@ -1204,12 +1204,12 @@
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>Visiting Snr Designer</t>
+          <t>Assistant Judicial</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>Visiting Snr Designer</t>
+          <t>Assistant Judicial</t>
         </is>
       </c>
       <c r="D40" s="0">
@@ -1224,12 +1224,12 @@
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>Visiting Sr. Lecturer</t>
+          <t>Assistant Professor</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>Visiting Sr. Lecturer</t>
+          <t>Assistant Professor</t>
         </is>
       </c>
       <c r="D41" s="0">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>VisitingAssist Professor</t>
+          <t>Assistant to Dean</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>VisitingAssist Professor</t>
+          <t>Assistant to Dean</t>
         </is>
       </c>
       <c r="D42" s="0">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>Vistg Professor</t>
+          <t>Assistant to the Dean</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>Vistg Professor</t>
+          <t>Assistant to the Dean</t>
         </is>
       </c>
       <c r="D43" s="0">
@@ -1282,15 +1282,8043 @@
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
+          <t>Assistant Visual Design</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Assistant Visual Design</t>
+        </is>
+      </c>
+      <c r="D44" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Assitant Professor</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Assitant Professor</t>
+        </is>
+      </c>
+      <c r="D45" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Assoc Dir.Strategic Comm.&amp;Mkt</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Assoc Dir.Strategic Comm.&amp;Mkt</t>
+        </is>
+      </c>
+      <c r="D46" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Assoc Director</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Assoc Director</t>
+        </is>
+      </c>
+      <c r="D47" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Assoc Professor</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Assoc Professor</t>
+        </is>
+      </c>
+      <c r="D48" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Assoc.Director</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Assoc.Director</t>
+        </is>
+      </c>
+      <c r="D49" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Associate Dean</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Associate Dean</t>
+        </is>
+      </c>
+      <c r="D50" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="D51" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Associate Librarian</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Associate Librarian</t>
+        </is>
+      </c>
+      <c r="D52" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Associate Professor</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Associate Professor</t>
+        </is>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Assof Professor</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>Assof Professor</t>
+        </is>
+      </c>
+      <c r="D54" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Asst Admissions</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>Asst Admissions</t>
+        </is>
+      </c>
+      <c r="D55" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Asst Coordinator</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>Asst Coordinator</t>
+        </is>
+      </c>
+      <c r="D56" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0">
+        <v>55</v>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Asst Libr</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>Asst Libr</t>
+        </is>
+      </c>
+      <c r="D57" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0">
+        <v>56</v>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Asst Librarian for IT</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>Asst Librarian for IT</t>
+        </is>
+      </c>
+      <c r="D58" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0">
+        <v>57</v>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Asst Professor</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>Asst Professor</t>
+        </is>
+      </c>
+      <c r="D59" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Asst to Chancellor for Recruit</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>Asst to Chancellor for Recruit</t>
+        </is>
+      </c>
+      <c r="D60" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Asst to Cord</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>Asst to Cord</t>
+        </is>
+      </c>
+      <c r="D61" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Asst to VP</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>Asst to VP</t>
+        </is>
+      </c>
+      <c r="D62" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Asst Uni Librarian</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>Asst Uni Librarian</t>
+        </is>
+      </c>
+      <c r="D63" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Asst. Community Services Cord.</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>Asst. Community Services Cord.</t>
+        </is>
+      </c>
+      <c r="D64" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Asst. Librarian Tech Services</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>Asst. Librarian Tech Services</t>
+        </is>
+      </c>
+      <c r="D65" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0">
+        <v>64</v>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Asst. to Public Rel. Manager</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>Asst. to Public Rel. Manager</t>
+        </is>
+      </c>
+      <c r="D66" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0">
+        <v>65</v>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Audio Video Technician</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>Audio Video Technician</t>
+        </is>
+      </c>
+      <c r="D67" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0">
+        <v>66</v>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Audio Visual Engineer</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>Audio Visual Engineer</t>
+        </is>
+      </c>
+      <c r="D68" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0">
+        <v>67</v>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Audio Visual Technician</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>Audio Visual Technician</t>
+        </is>
+      </c>
+      <c r="D69" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0">
+        <v>68</v>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>BIM Specialist</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>BIM Specialist</t>
+        </is>
+      </c>
+      <c r="D70" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0">
+        <v>69</v>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Budget Analyst</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>Budget Analyst</t>
+        </is>
+      </c>
+      <c r="D71" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0">
+        <v>70</v>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Business Analyst</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>Business Analyst</t>
+        </is>
+      </c>
+      <c r="D72" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0">
+        <v>71</v>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Business Services Co</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>Business Services Co</t>
+        </is>
+      </c>
+      <c r="D73" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0">
+        <v>72</v>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Business Services Coordinator</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>Business Services Coordinator</t>
+        </is>
+      </c>
+      <c r="D74" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0">
+        <v>73</v>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Business TransformationManager</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>Business TransformationManager</t>
+        </is>
+      </c>
+      <c r="D75" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0">
+        <v>74</v>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="D76" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0">
+        <v>75</v>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>CAD Design Engineer</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>CAD Design Engineer</t>
+        </is>
+      </c>
+      <c r="D77" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0">
+        <v>76</v>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Call Center Agent</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>Call Center Agent</t>
+        </is>
+      </c>
+      <c r="D78" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0">
+        <v>77</v>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Call Services Manager</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Call Services Manager</t>
+        </is>
+      </c>
+      <c r="D79" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0">
+        <v>78</v>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>CAPS Coordinator</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>CAPS Coordinator</t>
+        </is>
+      </c>
+      <c r="D80" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0">
+        <v>79</v>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>CAPS Manager</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>CAPS Manager</t>
+        </is>
+      </c>
+      <c r="D81" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0">
+        <v>80</v>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Career Advancement</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>Career Advancement</t>
+        </is>
+      </c>
+      <c r="D82" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0">
+        <v>81</v>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Career Co</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>Career Co</t>
+        </is>
+      </c>
+      <c r="D83" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0">
+        <v>82</v>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Career Coordinator</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>Career Coordinator</t>
+        </is>
+      </c>
+      <c r="D84" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0">
+        <v>83</v>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Career Specialist</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>Career Specialist</t>
+        </is>
+      </c>
+      <c r="D85" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0">
+        <v>84</v>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Carpenter</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>Carpenter</t>
+        </is>
+      </c>
+      <c r="D86" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0">
+        <v>85</v>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>Cashier</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>Cashier</t>
+        </is>
+      </c>
+      <c r="D87" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0">
+        <v>86</v>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="D88" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0">
+        <v>87</v>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>Chancellor</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>Chancellor</t>
+        </is>
+      </c>
+      <c r="D89" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0">
+        <v>88</v>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Chef</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>Chef</t>
+        </is>
+      </c>
+      <c r="D90" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0">
+        <v>89</v>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>Chemical Laboratory Engineer</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>Chemical Laboratory Engineer</t>
+        </is>
+      </c>
+      <c r="D91" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0">
+        <v>90</v>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Chief Operating</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>Chief Operating</t>
+        </is>
+      </c>
+      <c r="D92" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0">
+        <v>91</v>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>Chief Research</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>Chief Research</t>
+        </is>
+      </c>
+      <c r="D93" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0">
+        <v>92</v>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>Circulation Supervisor</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>Circulation Supervisor</t>
+        </is>
+      </c>
+      <c r="D94" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0">
+        <v>93</v>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>Client Support Specialist</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>Client Support Specialist</t>
+        </is>
+      </c>
+      <c r="D95" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0">
+        <v>94</v>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>Client Support Specialist I</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>Client Support Specialist I</t>
+        </is>
+      </c>
+      <c r="D96" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0">
+        <v>95</v>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Client Support Specialist III</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Client Support Specialist III</t>
+        </is>
+      </c>
+      <c r="D97" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0">
+        <v>96</v>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Clinical Coordinator</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clinical Coordinator</t>
+        </is>
+      </c>
+      <c r="D98" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0">
+        <v>97</v>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>Clinical Counselor</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clinical Counselor</t>
+        </is>
+      </c>
+      <c r="D99" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0">
+        <v>98</v>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Clinical Counselor &amp; Coach</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clinical Counselor &amp; Coach</t>
+        </is>
+      </c>
+      <c r="D100" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0">
+        <v>99</v>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>Clinical Psychologist</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clinical Psychologist</t>
+        </is>
+      </c>
+      <c r="D101" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0">
+        <v>100</v>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>Coach/Lifeguard</t>
+        </is>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Coach/Lifeguard</t>
+        </is>
+      </c>
+      <c r="D102" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0">
+        <v>101</v>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Collection Devlp Librarian</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Collection Devlp Librarian</t>
+        </is>
+      </c>
+      <c r="D103" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0">
+        <v>102</v>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>Commercial Manager</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Commercial Manager</t>
+        </is>
+      </c>
+      <c r="D104" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0">
+        <v>103</v>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>Communications Coordinator</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Communications Coordinator</t>
+        </is>
+      </c>
+      <c r="D105" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0">
+        <v>104</v>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Community Services Coord</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Community Services Coord</t>
+        </is>
+      </c>
+      <c r="D106" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0">
+        <v>105</v>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>Community Services Coordinator</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Community Services Coordinator</t>
+        </is>
+      </c>
+      <c r="D107" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0">
+        <v>106</v>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>Computer Lab Monitor</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Computer Lab Monitor</t>
+        </is>
+      </c>
+      <c r="D108" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0">
+        <v>107</v>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>Computer Laboratory Technician</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Computer Laboratory Technician</t>
+        </is>
+      </c>
+      <c r="D109" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0">
+        <v>108</v>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>Computer Systems Engineer</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Computer Systems Engineer</t>
+        </is>
+      </c>
+      <c r="D110" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0">
+        <v>109</v>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>Construction Foreman</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Construction Foreman</t>
+        </is>
+      </c>
+      <c r="D111" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0">
+        <v>110</v>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>Construction Manager</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Construction Manager</t>
+        </is>
+      </c>
+      <c r="D112" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0">
+        <v>111</v>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>Contracts &amp; Compliance</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Contracts &amp; Compliance</t>
+        </is>
+      </c>
+      <c r="D113" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0">
+        <v>112</v>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>Controller &amp; Director, Finance</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Controller &amp; Director, Finance</t>
+        </is>
+      </c>
+      <c r="D114" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0">
+        <v>113</v>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>Controller,Research&amp;Spons.Prog</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Controller,Research&amp;Spons.Prog</t>
+        </is>
+      </c>
+      <c r="D115" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0">
+        <v>114</v>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>Coord Comp Sports Men</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Coord Comp Sports Men</t>
+        </is>
+      </c>
+      <c r="D116" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0">
+        <v>115</v>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>Coord Comp Sports Women</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Coord Comp Sports Women</t>
+        </is>
+      </c>
+      <c r="D117" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0">
+        <v>116</v>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>Coordinator</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Coordinator</t>
+        </is>
+      </c>
+      <c r="D118" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0">
+        <v>117</v>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>Coordinator Student Activities</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Coordinator Student Activities</t>
+        </is>
+      </c>
+      <c r="D119" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0">
+        <v>118</v>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>Cost Control Engineer</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Cost Control Engineer</t>
+        </is>
+      </c>
+      <c r="D120" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0">
+        <v>119</v>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>Counselor</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>Counselor</t>
+        </is>
+      </c>
+      <c r="D121" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0">
+        <v>120</v>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>Course Mgt Systm Administrator</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>Course Mgt Systm Administrator</t>
+        </is>
+      </c>
+      <c r="D122" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0">
+        <v>121</v>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>Data &amp; Filing Clerk</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>Data &amp; Filing Clerk</t>
+        </is>
+      </c>
+      <c r="D123" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0">
+        <v>122</v>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>Database Administrator</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>Database Administrator</t>
+        </is>
+      </c>
+      <c r="D124" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0">
+        <v>123</v>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>Database Developer I</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>Database Developer I</t>
+        </is>
+      </c>
+      <c r="D125" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0">
+        <v>124</v>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>Database Developer II</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>Database Developer II</t>
+        </is>
+      </c>
+      <c r="D126" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0">
+        <v>125</v>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>Database/Systems Analyst</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>Database/Systems Analyst</t>
+        </is>
+      </c>
+      <c r="D127" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0">
+        <v>126</v>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>Day Care Center Manager</t>
+        </is>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>Day Care Center Manager</t>
+        </is>
+      </c>
+      <c r="D128" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0">
+        <v>127</v>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>Day Care CentreManager</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>Day Care CentreManager</t>
+        </is>
+      </c>
+      <c r="D129" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0">
+        <v>128</v>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>Dean</t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>Dean</t>
+        </is>
+      </c>
+      <c r="D130" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0">
+        <v>129</v>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>Delivery In</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>Delivery In</t>
+        </is>
+      </c>
+      <c r="D131" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0">
+        <v>130</v>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>Dental Assistant</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>Dental Assistant</t>
+        </is>
+      </c>
+      <c r="D132" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0">
+        <v>131</v>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>Dentist</t>
+        </is>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>Dentist</t>
+        </is>
+      </c>
+      <c r="D133" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0">
+        <v>132</v>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>Design Manager</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>Design Manager</t>
+        </is>
+      </c>
+      <c r="D134" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0">
+        <v>133</v>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>Development Coordinator</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>Development Coordinator</t>
+        </is>
+      </c>
+      <c r="D135" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0">
+        <v>134</v>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>Dir Univ Health Services</t>
+        </is>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>Dir Univ Health Services</t>
+        </is>
+      </c>
+      <c r="D136" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0">
+        <v>135</v>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>Dir.Commercialization &amp; P'Ship</t>
+        </is>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>Dir.Commercialization &amp; P'Ship</t>
+        </is>
+      </c>
+      <c r="D137" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0">
+        <v>136</v>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>Dir.of Tech.Transfer&amp;Partnersh</t>
+        </is>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>Dir.of Tech.Transfer&amp;Partnersh</t>
+        </is>
+      </c>
+      <c r="D138" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0">
+        <v>137</v>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>Direct Grad Studs &amp; Research</t>
+        </is>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>Direct Grad Studs &amp; Research</t>
+        </is>
+      </c>
+      <c r="D139" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0">
+        <v>138</v>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>Direct. Instructor</t>
+        </is>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>Direct. Instructor</t>
+        </is>
+      </c>
+      <c r="D140" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0">
+        <v>139</v>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D141" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0">
+        <v>140</v>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>Director CEC</t>
+        </is>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>Director CEC</t>
+        </is>
+      </c>
+      <c r="D142" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0">
+        <v>141</v>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>Director Faculty Devel.Center</t>
+        </is>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>Director Faculty Devel.Center</t>
+        </is>
+      </c>
+      <c r="D143" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0">
+        <v>142</v>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>Director Instructor</t>
+        </is>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>Director Instructor</t>
+        </is>
+      </c>
+      <c r="D144" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0">
+        <v>143</v>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>Director Strategic Plan &amp; Acc</t>
+        </is>
+      </c>
+      <c r="C145" s="0" t="inlineStr">
+        <is>
+          <t>Director Strategic Plan &amp; Acc</t>
+        </is>
+      </c>
+      <c r="D145" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0">
+        <v>144</v>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>Director, Budget &amp; Plng</t>
+        </is>
+      </c>
+      <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t>Director, Budget &amp; Plng</t>
+        </is>
+      </c>
+      <c r="D146" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0">
+        <v>145</v>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>Director,Strategic Initiatives</t>
+        </is>
+      </c>
+      <c r="C147" s="0" t="inlineStr">
+        <is>
+          <t>Director,Strategic Initiatives</t>
+        </is>
+      </c>
+      <c r="D147" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0">
+        <v>146</v>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>Dorm Supervisor</t>
+        </is>
+      </c>
+      <c r="C148" s="0" t="inlineStr">
+        <is>
+          <t>Dorm Supervisor</t>
+        </is>
+      </c>
+      <c r="D148" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0">
+        <v>147</v>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>Dorm Supervisor Female</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="inlineStr">
+        <is>
+          <t>Dorm Supervisor Female</t>
+        </is>
+      </c>
+      <c r="D149" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0">
+        <v>148</v>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>Dorm Supervisor Men</t>
+        </is>
+      </c>
+      <c r="C150" s="0" t="inlineStr">
+        <is>
+          <t>Dorm Supervisor Men</t>
+        </is>
+      </c>
+      <c r="D150" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0">
+        <v>149</v>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>Dorm Supervisor Women</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>Dorm Supervisor Women</t>
+        </is>
+      </c>
+      <c r="D151" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0">
+        <v>150</v>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>Dormitory Receptionist</t>
+        </is>
+      </c>
+      <c r="C152" s="0" t="inlineStr">
+        <is>
+          <t>Dormitory Receptionist</t>
+        </is>
+      </c>
+      <c r="D152" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0">
+        <v>151</v>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>Dormitory Supervisor</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>Dormitory Supervisor</t>
+        </is>
+      </c>
+      <c r="D153" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="0">
+        <v>152</v>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="D154" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="0">
+        <v>153</v>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t>Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="D155" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="0">
+        <v>154</v>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>Electrical Lab Instructor</t>
+        </is>
+      </c>
+      <c r="C156" s="0" t="inlineStr">
+        <is>
+          <t>Electrical Lab Instructor</t>
+        </is>
+      </c>
+      <c r="D156" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="0">
+        <v>155</v>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>Electrical Services Manager</t>
+        </is>
+      </c>
+      <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>Electrical Services Manager</t>
+        </is>
+      </c>
+      <c r="D157" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="0">
+        <v>156</v>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>Electrical Supervisor</t>
+        </is>
+      </c>
+      <c r="C158" s="0" t="inlineStr">
+        <is>
+          <t>Electrical Supervisor</t>
+        </is>
+      </c>
+      <c r="D158" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="0">
+        <v>157</v>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>Electrician</t>
+        </is>
+      </c>
+      <c r="C159" s="0" t="inlineStr">
+        <is>
+          <t>Electrician</t>
+        </is>
+      </c>
+      <c r="D159" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="0">
+        <v>158</v>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>Electrician A</t>
+        </is>
+      </c>
+      <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t>Electrician A</t>
+        </is>
+      </c>
+      <c r="D160" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="0">
+        <v>159</v>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>Electrician B</t>
+        </is>
+      </c>
+      <c r="C161" s="0" t="inlineStr">
+        <is>
+          <t>Electrician B</t>
+        </is>
+      </c>
+      <c r="D161" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="0">
+        <v>160</v>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>Electronic Resources Librarian</t>
+        </is>
+      </c>
+      <c r="C162" s="0" t="inlineStr">
+        <is>
+          <t>Electronic Resources Librarian</t>
+        </is>
+      </c>
+      <c r="D162" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="0">
+        <v>161</v>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>Electronic Technician</t>
+        </is>
+      </c>
+      <c r="C163" s="0" t="inlineStr">
+        <is>
+          <t>Electronic Technician</t>
+        </is>
+      </c>
+      <c r="D163" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="0">
+        <v>162</v>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>Electronics Engineer</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>Electronics Engineer</t>
+        </is>
+      </c>
+      <c r="D164" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="0">
+        <v>163</v>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>Engineer Archive/Records &amp; CAD</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>Engineer Archive/Records &amp; CAD</t>
+        </is>
+      </c>
+      <c r="D165" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="0">
+        <v>164</v>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>Evening Circulation Supervisor</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>Evening Circulation Supervisor</t>
+        </is>
+      </c>
+      <c r="D166" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="0">
+        <v>165</v>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>Evening Library Assistant</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>Evening Library Assistant</t>
+        </is>
+      </c>
+      <c r="D167" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="0">
+        <v>166</v>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>Evening Library Clerk</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>Evening Library Clerk</t>
+        </is>
+      </c>
+      <c r="D168" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="0">
+        <v>167</v>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>Evening Library Supervisor</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>Evening Library Supervisor</t>
+        </is>
+      </c>
+      <c r="D169" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="0">
+        <v>168</v>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>Evening/Week Circ. Supervisor</t>
+        </is>
+      </c>
+      <c r="C170" s="0" t="inlineStr">
+        <is>
+          <t>Evening/Week Circ. Supervisor</t>
+        </is>
+      </c>
+      <c r="D170" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="0">
+        <v>169</v>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>Events Coordinator</t>
+        </is>
+      </c>
+      <c r="C171" s="0" t="inlineStr">
+        <is>
+          <t>Events Coordinator</t>
+        </is>
+      </c>
+      <c r="D171" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="0">
+        <v>170</v>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>Events Executive</t>
+        </is>
+      </c>
+      <c r="C172" s="0" t="inlineStr">
+        <is>
+          <t>Events Executive</t>
+        </is>
+      </c>
+      <c r="D172" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="0">
+        <v>171</v>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>Excecutive Assst/Program Coord</t>
+        </is>
+      </c>
+      <c r="C173" s="0" t="inlineStr">
+        <is>
+          <t>Excecutive Assst/Program Coord</t>
+        </is>
+      </c>
+      <c r="D173" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="0">
+        <v>172</v>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>Exec in Residence</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>Exec in Residence</t>
+        </is>
+      </c>
+      <c r="D174" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="0">
+        <v>173</v>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>Executive</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>Executive</t>
+        </is>
+      </c>
+      <c r="D175" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="0">
+        <v>174</v>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>Executive Assistant</t>
+        </is>
+      </c>
+      <c r="C176" s="0" t="inlineStr">
+        <is>
+          <t>Executive Assistant</t>
+        </is>
+      </c>
+      <c r="D176" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="0">
+        <v>175</v>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>Executive Dir.</t>
+        </is>
+      </c>
+      <c r="C177" s="0" t="inlineStr">
+        <is>
+          <t>Executive Dir.</t>
+        </is>
+      </c>
+      <c r="D177" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="0">
+        <v>176</v>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>Executive Dir.Human Resources</t>
+        </is>
+      </c>
+      <c r="C178" s="0" t="inlineStr">
+        <is>
+          <t>Executive Dir.Human Resources</t>
+        </is>
+      </c>
+      <c r="D178" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="0">
+        <v>177</v>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>Executive Director Fin &amp; Admn</t>
+        </is>
+      </c>
+      <c r="C179" s="0" t="inlineStr">
+        <is>
+          <t>Executive Director Fin &amp; Admn</t>
+        </is>
+      </c>
+      <c r="D179" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="0">
+        <v>178</v>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>Extra Low Voltage Technician</t>
+        </is>
+      </c>
+      <c r="C180" s="0" t="inlineStr">
+        <is>
+          <t>Extra Low Voltage Technician</t>
+        </is>
+      </c>
+      <c r="D180" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="0">
+        <v>179</v>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>Fac Associate</t>
+        </is>
+      </c>
+      <c r="C181" s="0" t="inlineStr">
+        <is>
+          <t>Fac Associate</t>
+        </is>
+      </c>
+      <c r="D181" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="0">
+        <v>180</v>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>Facilities Administration Mang</t>
+        </is>
+      </c>
+      <c r="C182" s="0" t="inlineStr">
+        <is>
+          <t>Facilities Administration Mang</t>
+        </is>
+      </c>
+      <c r="D182" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="0">
+        <v>181</v>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>Facilities Manager</t>
+        </is>
+      </c>
+      <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>Facilities Manager</t>
+        </is>
+      </c>
+      <c r="D183" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="0">
+        <v>182</v>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>Facility &amp;Equipment Supervisor</t>
+        </is>
+      </c>
+      <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>Facility &amp;Equipment Supervisor</t>
+        </is>
+      </c>
+      <c r="D184" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="0">
+        <v>183</v>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>Faculty Fellow</t>
+        </is>
+      </c>
+      <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>Faculty Fellow</t>
+        </is>
+      </c>
+      <c r="D185" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="0">
+        <v>184</v>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>Faculty Fellow&amp; Visit Professor</t>
+        </is>
+      </c>
+      <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>Faculty Fellow&amp; Visit Professor</t>
+        </is>
+      </c>
+      <c r="D186" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="0">
+        <v>185</v>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>Female Basketball Coach</t>
+        </is>
+      </c>
+      <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>Female Basketball Coach</t>
+        </is>
+      </c>
+      <c r="D187" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="0">
+        <v>186</v>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>Fin.Grants &amp; Scholarship Mgr.</t>
+        </is>
+      </c>
+      <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>Fin.Grants &amp; Scholarship Mgr.</t>
+        </is>
+      </c>
+      <c r="D188" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="0">
+        <v>187</v>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>Finance Coordinator</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>Finance Coordinator</t>
+        </is>
+      </c>
+      <c r="D189" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="0">
+        <v>188</v>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>Finance Manager</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>Finance Manager</t>
+        </is>
+      </c>
+      <c r="D190" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="0">
+        <v>189</v>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>Financial Grant Assistant</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>Financial Grant Assistant</t>
+        </is>
+      </c>
+      <c r="D191" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="0">
+        <v>190</v>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>Financial Grants</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>Financial Grants</t>
+        </is>
+      </c>
+      <c r="D192" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="0">
+        <v>191</v>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>Financial Grants Assistant</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>Financial Grants Assistant</t>
+        </is>
+      </c>
+      <c r="D193" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="0">
+        <v>192</v>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>First Year Experience Coord.</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>First Year Experience Coord.</t>
+        </is>
+      </c>
+      <c r="D194" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="195">
+      <c r="A195" s="0">
+        <v>193</v>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>Fitness Trainer</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>Fitness Trainer</t>
+        </is>
+      </c>
+      <c r="D195" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="196">
+      <c r="A196" s="0">
+        <v>194</v>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>Foreman Electrical/Mechanical</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>Foreman Electrical/Mechanical</t>
+        </is>
+      </c>
+      <c r="D196" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="197">
+      <c r="A197" s="0">
+        <v>195</v>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>Foreman Structural Maintenance</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>Foreman Structural Maintenance</t>
+        </is>
+      </c>
+      <c r="D197" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="198">
+      <c r="A198" s="0">
+        <v>196</v>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>General Accounts Accountant</t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>General Accounts Accountant</t>
+        </is>
+      </c>
+      <c r="D198" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="199">
+      <c r="A199" s="0">
+        <v>197</v>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>General Practitioner</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>General Practitioner</t>
+        </is>
+      </c>
+      <c r="D199" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="0">
+        <v>198</v>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>Gift Data Processor</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>Gift Data Processor</t>
+        </is>
+      </c>
+      <c r="D200" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="201">
+      <c r="A201" s="0">
+        <v>199</v>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>Government Coordinator</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>Government Coordinator</t>
+        </is>
+      </c>
+      <c r="D201" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="202">
+      <c r="A202" s="0">
+        <v>200</v>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>Graduate Programs Senior Cord.</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>Graduate Programs Senior Cord.</t>
+        </is>
+      </c>
+      <c r="D202" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="203">
+      <c r="A203" s="0">
+        <v>201</v>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="D203" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="0">
+        <v>202</v>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>Health Services Coordinator</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>Health Services Coordinator</t>
+        </is>
+      </c>
+      <c r="D204" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="0">
+        <v>203</v>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>Help Desk Supervisor</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>Help Desk Supervisor</t>
+        </is>
+      </c>
+      <c r="D205" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="0">
+        <v>204</v>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>House Supervisor</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>House Supervisor</t>
+        </is>
+      </c>
+      <c r="D206" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="0">
+        <v>205</v>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>Housing Assistant</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>Housing Assistant</t>
+        </is>
+      </c>
+      <c r="D207" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="208">
+      <c r="A208" s="0">
+        <v>206</v>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>HR Admin &amp; Payroll</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>HR Admin &amp; Payroll</t>
+        </is>
+      </c>
+      <c r="D208" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="209">
+      <c r="A209" s="0">
+        <v>207</v>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>HR Assistant</t>
+        </is>
+      </c>
+      <c r="C209" s="0" t="inlineStr">
+        <is>
+          <t>HR Assistant</t>
+        </is>
+      </c>
+      <c r="D209" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="210">
+      <c r="A210" s="0">
+        <v>208</v>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="C210" s="0" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="D210" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="211">
+      <c r="A211" s="0">
+        <v>209</v>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+      <c r="C211" s="0" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+      <c r="D211" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="212">
+      <c r="A212" s="0">
+        <v>210</v>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>Human Resources Manager</t>
+        </is>
+      </c>
+      <c r="C212" s="0" t="inlineStr">
+        <is>
+          <t>Human Resources Manager</t>
+        </is>
+      </c>
+      <c r="D212" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="213">
+      <c r="A213" s="0">
+        <v>211</v>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>Immigration Liaison</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t>Immigration Liaison</t>
+        </is>
+      </c>
+      <c r="D213" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="214">
+      <c r="A214" s="0">
+        <v>212</v>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>Info&amp; Communication Specialist</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>Info&amp; Communication Specialist</t>
+        </is>
+      </c>
+      <c r="D214" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="215">
+      <c r="A215" s="0">
+        <v>213</v>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>Information Literacy Librarian</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>Information Literacy Librarian</t>
+        </is>
+      </c>
+      <c r="D215" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="216">
+      <c r="A216" s="0">
+        <v>214</v>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>Information Security Manager</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>Information Security Manager</t>
+        </is>
+      </c>
+      <c r="D216" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="217">
+      <c r="A217" s="0">
+        <v>215</v>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>Information Security Specialst</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>Information Security Specialst</t>
+        </is>
+      </c>
+      <c r="D217" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="0">
+        <v>216</v>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>Information's Common Coordinat</t>
+        </is>
+      </c>
+      <c r="C218" s="0" t="inlineStr">
+        <is>
+          <t>Information's Common Coordinat</t>
+        </is>
+      </c>
+      <c r="D218" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="219">
+      <c r="A219" s="0">
+        <v>217</v>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="C219" s="0" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="D219" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="220">
+      <c r="A220" s="0">
+        <v>218</v>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>Int Stud Ex Prog Coordinator</t>
+        </is>
+      </c>
+      <c r="C220" s="0" t="inlineStr">
+        <is>
+          <t>Int Stud Ex Prog Coordinator</t>
+        </is>
+      </c>
+      <c r="D220" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="221">
+      <c r="A221" s="0">
+        <v>219</v>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>Int.Provost&amp;Chief Acad.Officer</t>
+        </is>
+      </c>
+      <c r="C221" s="0" t="inlineStr">
+        <is>
+          <t>Int.Provost&amp;Chief Acad.Officer</t>
+        </is>
+      </c>
+      <c r="D221" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="222">
+      <c r="A222" s="0">
+        <v>220</v>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>Interim Director Career Servcs</t>
+        </is>
+      </c>
+      <c r="C222" s="0" t="inlineStr">
+        <is>
+          <t>Interim Director Career Servcs</t>
+        </is>
+      </c>
+      <c r="D222" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="223">
+      <c r="A223" s="0">
+        <v>221</v>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>Interim Vice Provost</t>
+        </is>
+      </c>
+      <c r="C223" s="0" t="inlineStr">
+        <is>
+          <t>Interim Vice Provost</t>
+        </is>
+      </c>
+      <c r="D223" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="224">
+      <c r="A224" s="0">
+        <v>222</v>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>Interior Designer</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>Interior Designer</t>
+        </is>
+      </c>
+      <c r="D224" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="225">
+      <c r="A225" s="0">
+        <v>223</v>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>Internal Auditor</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>Internal Auditor</t>
+        </is>
+      </c>
+      <c r="D225" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="0">
+        <v>224</v>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>Intnl Students &amp; Alumni Coordi</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>Intnl Students &amp; Alumni Coordi</t>
+        </is>
+      </c>
+      <c r="D226" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="0">
+        <v>225</v>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>Intrntal Exch Prog Advisor</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>Intrntal Exch Prog Advisor</t>
+        </is>
+      </c>
+      <c r="D227" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="228">
+      <c r="A228" s="0">
+        <v>226</v>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>IT Administrator</t>
+        </is>
+      </c>
+      <c r="C228" s="0" t="inlineStr">
+        <is>
+          <t>IT Administrator</t>
+        </is>
+      </c>
+      <c r="D228" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="229">
+      <c r="A229" s="0">
+        <v>227</v>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>IT Lab Instructor</t>
+        </is>
+      </c>
+      <c r="C229" s="0" t="inlineStr">
+        <is>
+          <t>IT Lab Instructor</t>
+        </is>
+      </c>
+      <c r="D229" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="230">
+      <c r="A230" s="0">
+        <v>228</v>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>IT Laboratory Instructor</t>
+        </is>
+      </c>
+      <c r="C230" s="0" t="inlineStr">
+        <is>
+          <t>IT Laboratory Instructor</t>
+        </is>
+      </c>
+      <c r="D230" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="231">
+      <c r="A231" s="0">
+        <v>229</v>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="C231" s="0" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="D231" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="232">
+      <c r="A232" s="0">
+        <v>230</v>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>IT Specialist</t>
+        </is>
+      </c>
+      <c r="C232" s="0" t="inlineStr">
+        <is>
+          <t>IT Specialist</t>
+        </is>
+      </c>
+      <c r="D232" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="233">
+      <c r="A233" s="0">
+        <v>231</v>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>Junior Architect</t>
+        </is>
+      </c>
+      <c r="C233" s="0" t="inlineStr">
+        <is>
+          <t>Junior Architect</t>
+        </is>
+      </c>
+      <c r="D233" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="234">
+      <c r="A234" s="0">
+        <v>232</v>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>Junior Library Specialist</t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>Junior Library Specialist</t>
+        </is>
+      </c>
+      <c r="D234" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="235">
+      <c r="A235" s="0">
+        <v>233</v>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>Kinder Garden Teacher</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>Kinder Garden Teacher</t>
+        </is>
+      </c>
+      <c r="D235" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="236">
+      <c r="A236" s="0">
+        <v>234</v>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>Lab Assistant Physics</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>Lab Assistant Physics</t>
+        </is>
+      </c>
+      <c r="D236" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="237">
+      <c r="A237" s="0">
+        <v>235</v>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>Lab Asst Physics</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>Lab Asst Physics</t>
+        </is>
+      </c>
+      <c r="D237" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="238">
+      <c r="A238" s="0">
+        <v>236</v>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>Lab Engineer</t>
+        </is>
+      </c>
+      <c r="C238" s="0" t="inlineStr">
+        <is>
+          <t>Lab Engineer</t>
+        </is>
+      </c>
+      <c r="D238" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="239">
+      <c r="A239" s="0">
+        <v>237</v>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>Lab Engineer Chemical Engg</t>
+        </is>
+      </c>
+      <c r="C239" s="0" t="inlineStr">
+        <is>
+          <t>Lab Engineer Chemical Engg</t>
+        </is>
+      </c>
+      <c r="D239" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="240">
+      <c r="A240" s="0">
+        <v>238</v>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>Lab Technician</t>
+        </is>
+      </c>
+      <c r="C240" s="0" t="inlineStr">
+        <is>
+          <t>Lab Technician</t>
+        </is>
+      </c>
+      <c r="D240" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="241">
+      <c r="A241" s="0">
+        <v>239</v>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>Lab Technician Chem</t>
+        </is>
+      </c>
+      <c r="C241" s="0" t="inlineStr">
+        <is>
+          <t>Lab Technician Chem</t>
+        </is>
+      </c>
+      <c r="D241" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="242">
+      <c r="A242" s="0">
+        <v>240</v>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>Lab.Specialist I, Multi Labora</t>
+        </is>
+      </c>
+      <c r="C242" s="0" t="inlineStr">
+        <is>
+          <t>Lab.Specialist I, Multi Labora</t>
+        </is>
+      </c>
+      <c r="D242" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="243">
+      <c r="A243" s="0">
+        <v>241</v>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>Laboratory Instructor</t>
+        </is>
+      </c>
+      <c r="C243" s="0" t="inlineStr">
+        <is>
+          <t>Laboratory Instructor</t>
+        </is>
+      </c>
+      <c r="D243" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="244">
+      <c r="A244" s="0">
+        <v>242</v>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>Laboratory Moniter</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>Laboratory Moniter</t>
+        </is>
+      </c>
+      <c r="D244" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="245">
+      <c r="A245" s="0">
+        <v>243</v>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>Laboratory Specialist</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>Laboratory Specialist</t>
+        </is>
+      </c>
+      <c r="D245" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="246">
+      <c r="A246" s="0">
+        <v>244</v>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>Laboratory Teaching Assistant</t>
+        </is>
+      </c>
+      <c r="C246" s="0" t="inlineStr">
+        <is>
+          <t>Laboratory Teaching Assistant</t>
+        </is>
+      </c>
+      <c r="D246" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="247">
+      <c r="A247" s="0">
+        <v>245</v>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>Lecturer</t>
+        </is>
+      </c>
+      <c r="C247" s="0" t="inlineStr">
+        <is>
+          <t>Lecturer</t>
+        </is>
+      </c>
+      <c r="D247" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="248">
+      <c r="A248" s="0">
+        <v>246</v>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>Librarian</t>
+        </is>
+      </c>
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>Librarian</t>
+        </is>
+      </c>
+      <c r="D248" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="249">
+      <c r="A249" s="0">
+        <v>247</v>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>Library Assistant</t>
+        </is>
+      </c>
+      <c r="C249" s="0" t="inlineStr">
+        <is>
+          <t>Library Assistant</t>
+        </is>
+      </c>
+      <c r="D249" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="250">
+      <c r="A250" s="0">
+        <v>248</v>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>Library clerk</t>
+        </is>
+      </c>
+      <c r="C250" s="0" t="inlineStr">
+        <is>
+          <t>Library clerk</t>
+        </is>
+      </c>
+      <c r="D250" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="251">
+      <c r="A251" s="0">
+        <v>249</v>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>Library IT Specialist</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="inlineStr">
+        <is>
+          <t>Library IT Specialist</t>
+        </is>
+      </c>
+      <c r="D251" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="252">
+      <c r="A252" s="0">
+        <v>250</v>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>Library Specialist</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>Library Specialist</t>
+        </is>
+      </c>
+      <c r="D252" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="253">
+      <c r="A253" s="0">
+        <v>251</v>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>Library Systems Coordinator</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>Library Systems Coordinator</t>
+        </is>
+      </c>
+      <c r="D253" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="254">
+      <c r="A254" s="0">
+        <v>252</v>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>Life Guard</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>Life Guard</t>
+        </is>
+      </c>
+      <c r="D254" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="255">
+      <c r="A255" s="0">
+        <v>253</v>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>Life Guard/Coach</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>Life Guard/Coach</t>
+        </is>
+      </c>
+      <c r="D255" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="256">
+      <c r="A256" s="0">
+        <v>254</v>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>Lifeguard/ Coach</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>Lifeguard/ Coach</t>
+        </is>
+      </c>
+      <c r="D256" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="257">
+      <c r="A257" s="0">
+        <v>255</v>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>Logistics Assistant</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>Logistics Assistant</t>
+        </is>
+      </c>
+      <c r="D257" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="258">
+      <c r="A258" s="0">
+        <v>256</v>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>Logistics Manager</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>Logistics Manager</t>
+        </is>
+      </c>
+      <c r="D258" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="259">
+      <c r="A259" s="0">
+        <v>257</v>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>Logistics Supervisor</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>Logistics Supervisor</t>
+        </is>
+      </c>
+      <c r="D259" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="260">
+      <c r="A260" s="0">
+        <v>258</v>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>Mail Assistant</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="inlineStr">
+        <is>
+          <t>Mail Assistant</t>
+        </is>
+      </c>
+      <c r="D260" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="261">
+      <c r="A261" s="0">
+        <v>259</v>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>Maintenance Coordinator</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="inlineStr">
+        <is>
+          <t>Maintenance Coordinator</t>
+        </is>
+      </c>
+      <c r="D261" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="262">
+      <c r="A262" s="0">
+        <v>260</v>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>Maintenance Foreman</t>
+        </is>
+      </c>
+      <c r="C262" s="0" t="inlineStr">
+        <is>
+          <t>Maintenance Foreman</t>
+        </is>
+      </c>
+      <c r="D262" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="263">
+      <c r="A263" s="0">
+        <v>261</v>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="D263" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="264">
+      <c r="A264" s="0">
+        <v>262</v>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>Manager Day Care Centre</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>Manager Day Care Centre</t>
+        </is>
+      </c>
+      <c r="D264" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="265">
+      <c r="A265" s="0">
+        <v>263</v>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>Manager Internships&amp; Placement</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>Manager Internships&amp; Placement</t>
+        </is>
+      </c>
+      <c r="D265" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="266">
+      <c r="A266" s="0">
+        <v>264</v>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>Manager MBA Programs</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>Manager MBA Programs</t>
+        </is>
+      </c>
+      <c r="D266" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="267">
+      <c r="A267" s="0">
+        <v>265</v>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>Manager Resident Halls</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>Manager Resident Halls</t>
+        </is>
+      </c>
+      <c r="D267" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="268">
+      <c r="A268" s="0">
+        <v>266</v>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>Manager,Operation Support Serv</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>Manager,Operation Support Serv</t>
+        </is>
+      </c>
+      <c r="D268" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="269">
+      <c r="A269" s="0">
+        <v>267</v>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>Marketing Representative</t>
+        </is>
+      </c>
+      <c r="C269" s="0" t="inlineStr">
+        <is>
+          <t>Marketing Representative</t>
+        </is>
+      </c>
+      <c r="D269" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="270">
+      <c r="A270" s="0">
+        <v>268</v>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>Mason</t>
+        </is>
+      </c>
+      <c r="C270" s="0" t="inlineStr">
+        <is>
+          <t>Mason</t>
+        </is>
+      </c>
+      <c r="D270" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="271">
+      <c r="A271" s="0">
+        <v>269</v>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>Master Carpenter</t>
+        </is>
+      </c>
+      <c r="C271" s="0" t="inlineStr">
+        <is>
+          <t>Master Carpenter</t>
+        </is>
+      </c>
+      <c r="D271" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="272">
+      <c r="A272" s="0">
+        <v>270</v>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>Materials&amp;Digital Lab Instructor</t>
+        </is>
+      </c>
+      <c r="C272" s="0" t="inlineStr">
+        <is>
+          <t>Materials&amp;Digital Lab Instructor</t>
+        </is>
+      </c>
+      <c r="D272" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="273">
+      <c r="A273" s="0">
+        <v>271</v>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>MBA Coordinator</t>
+        </is>
+      </c>
+      <c r="C273" s="0" t="inlineStr">
+        <is>
+          <t>MBA Coordinator</t>
+        </is>
+      </c>
+      <c r="D273" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="274">
+      <c r="A274" s="0">
+        <v>272</v>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C274" s="0" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D274" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="275">
+      <c r="A275" s="0">
+        <v>273</v>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>Mechatronics Lab Technician</t>
+        </is>
+      </c>
+      <c r="C275" s="0" t="inlineStr">
+        <is>
+          <t>Mechatronics Lab Technician</t>
+        </is>
+      </c>
+      <c r="D275" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="276">
+      <c r="A276" s="0">
+        <v>274</v>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>Mediation Coordinator</t>
+        </is>
+      </c>
+      <c r="C276" s="0" t="inlineStr">
+        <is>
+          <t>Mediation Coordinator</t>
+        </is>
+      </c>
+      <c r="D276" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="277">
+      <c r="A277" s="0">
+        <v>275</v>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>Medical Data Entry Clerk</t>
+        </is>
+      </c>
+      <c r="C277" s="0" t="inlineStr">
+        <is>
+          <t>Medical Data Entry Clerk</t>
+        </is>
+      </c>
+      <c r="D277" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="278">
+      <c r="A278" s="0">
+        <v>276</v>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>MEP Technician</t>
+        </is>
+      </c>
+      <c r="C278" s="0" t="inlineStr">
+        <is>
+          <t>MEP Technician</t>
+        </is>
+      </c>
+      <c r="D278" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="279">
+      <c r="A279" s="0">
+        <v>277</v>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>Mgr</t>
+        </is>
+      </c>
+      <c r="C279" s="0" t="inlineStr">
+        <is>
+          <t>Mgr</t>
+        </is>
+      </c>
+      <c r="D279" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="280">
+      <c r="A280" s="0">
+        <v>278</v>
+      </c>
+      <c r="B280" s="0" t="inlineStr">
+        <is>
+          <t>Mjr Accounts &amp; Marketing Exec.</t>
+        </is>
+      </c>
+      <c r="C280" s="0" t="inlineStr">
+        <is>
+          <t>Mjr Accounts &amp; Marketing Exec.</t>
+        </is>
+      </c>
+      <c r="D280" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="281">
+      <c r="A281" s="0">
+        <v>279</v>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
+        <is>
+          <t>Mktg. &amp; Student Coordinator</t>
+        </is>
+      </c>
+      <c r="C281" s="0" t="inlineStr">
+        <is>
+          <t>Mktg. &amp; Student Coordinator</t>
+        </is>
+      </c>
+      <c r="D281" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="282">
+      <c r="A282" s="0">
+        <v>280</v>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>Multimedia Developer</t>
+        </is>
+      </c>
+      <c r="C282" s="0" t="inlineStr">
+        <is>
+          <t>Multimedia Developer</t>
+        </is>
+      </c>
+      <c r="D282" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="283">
+      <c r="A283" s="0">
+        <v>281</v>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
+        <is>
+          <t>Network Engineer II</t>
+        </is>
+      </c>
+      <c r="C283" s="0" t="inlineStr">
+        <is>
+          <t>Network Engineer II</t>
+        </is>
+      </c>
+      <c r="D283" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="284">
+      <c r="A284" s="0">
+        <v>282</v>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>Network Infrastructure Eng</t>
+        </is>
+      </c>
+      <c r="C284" s="0" t="inlineStr">
+        <is>
+          <t>Network Infrastructure Eng</t>
+        </is>
+      </c>
+      <c r="D284" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="285">
+      <c r="A285" s="0">
+        <v>283</v>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>Network Security Engineer</t>
+        </is>
+      </c>
+      <c r="C285" s="0" t="inlineStr">
+        <is>
+          <t>Network Security Engineer</t>
+        </is>
+      </c>
+      <c r="D285" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="286">
+      <c r="A286" s="0">
+        <v>284</v>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
+        <is>
+          <t>Network Systems Engineer II</t>
+        </is>
+      </c>
+      <c r="C286" s="0" t="inlineStr">
+        <is>
+          <t>Network Systems Engineer II</t>
+        </is>
+      </c>
+      <c r="D286" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="287">
+      <c r="A287" s="0">
+        <v>285</v>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>Network Telecoms Engineer</t>
+        </is>
+      </c>
+      <c r="C287" s="0" t="inlineStr">
+        <is>
+          <t>Network Telecoms Engineer</t>
+        </is>
+      </c>
+      <c r="D287" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="288">
+      <c r="A288" s="0">
+        <v>286</v>
+      </c>
+      <c r="B288" s="0" t="inlineStr">
+        <is>
+          <t>Nurse</t>
+        </is>
+      </c>
+      <c r="C288" s="0" t="inlineStr">
+        <is>
+          <t>Nurse</t>
+        </is>
+      </c>
+      <c r="D288" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="289">
+      <c r="A289" s="0">
+        <v>287</v>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
+        <is>
+          <t>Nursery Teacher Supervisor</t>
+        </is>
+      </c>
+      <c r="C289" s="0" t="inlineStr">
+        <is>
+          <t>Nursery Teacher Supervisor</t>
+        </is>
+      </c>
+      <c r="D289" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="290">
+      <c r="A290" s="0">
+        <v>288</v>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>Nutritionist/Hygienist</t>
+        </is>
+      </c>
+      <c r="C290" s="0" t="inlineStr">
+        <is>
+          <t>Nutritionist/Hygienist</t>
+        </is>
+      </c>
+      <c r="D290" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="291">
+      <c r="A291" s="0">
+        <v>289</v>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
+        <is>
+          <t>Office Attendant</t>
+        </is>
+      </c>
+      <c r="C291" s="0" t="inlineStr">
+        <is>
+          <t>Office Attendant</t>
+        </is>
+      </c>
+      <c r="D291" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="292">
+      <c r="A292" s="0">
+        <v>290</v>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>Officer Employee Relations</t>
+        </is>
+      </c>
+      <c r="C292" s="0" t="inlineStr">
+        <is>
+          <t>Officer Employee Relations</t>
+        </is>
+      </c>
+      <c r="D292" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="293">
+      <c r="A293" s="0">
+        <v>291</v>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
+        <is>
+          <t>Officer Judicial Affairs</t>
+        </is>
+      </c>
+      <c r="C293" s="0" t="inlineStr">
+        <is>
+          <t>Officer Judicial Affairs</t>
+        </is>
+      </c>
+      <c r="D293" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="294">
+      <c r="A294" s="0">
+        <v>292</v>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>Operator</t>
+        </is>
+      </c>
+      <c r="C294" s="0" t="inlineStr">
+        <is>
+          <t>Operator</t>
+        </is>
+      </c>
+      <c r="D294" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="295">
+      <c r="A295" s="0">
+        <v>293</v>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
+        <is>
+          <t>Operator Control Room</t>
+        </is>
+      </c>
+      <c r="C295" s="0" t="inlineStr">
+        <is>
+          <t>Operator Control Room</t>
+        </is>
+      </c>
+      <c r="D295" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="296">
+      <c r="A296" s="0">
+        <v>294</v>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
+        <is>
+          <t>Outreach Coordinator</t>
+        </is>
+      </c>
+      <c r="C296" s="0" t="inlineStr">
+        <is>
+          <t>Outreach Coordinator</t>
+        </is>
+      </c>
+      <c r="D296" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="297">
+      <c r="A297" s="0">
+        <v>295</v>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>Painter</t>
+        </is>
+      </c>
+      <c r="C297" s="0" t="inlineStr">
+        <is>
+          <t>Painter</t>
+        </is>
+      </c>
+      <c r="D297" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="298">
+      <c r="A298" s="0">
+        <v>296</v>
+      </c>
+      <c r="B298" s="0" t="inlineStr">
+        <is>
+          <t>Payroll &amp; Budget</t>
+        </is>
+      </c>
+      <c r="C298" s="0" t="inlineStr">
+        <is>
+          <t>Payroll &amp; Budget</t>
+        </is>
+      </c>
+      <c r="D298" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="299">
+      <c r="A299" s="0">
+        <v>297</v>
+      </c>
+      <c r="B299" s="0" t="inlineStr">
+        <is>
+          <t>Plumber</t>
+        </is>
+      </c>
+      <c r="C299" s="0" t="inlineStr">
+        <is>
+          <t>Plumber</t>
+        </is>
+      </c>
+      <c r="D299" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="300">
+      <c r="A300" s="0">
+        <v>298</v>
+      </c>
+      <c r="B300" s="0" t="inlineStr">
+        <is>
+          <t>Plumber A</t>
+        </is>
+      </c>
+      <c r="C300" s="0" t="inlineStr">
+        <is>
+          <t>Plumber A</t>
+        </is>
+      </c>
+      <c r="D300" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="301">
+      <c r="A301" s="0">
+        <v>299</v>
+      </c>
+      <c r="B301" s="0" t="inlineStr">
+        <is>
+          <t>Plumber B</t>
+        </is>
+      </c>
+      <c r="C301" s="0" t="inlineStr">
+        <is>
+          <t>Plumber B</t>
+        </is>
+      </c>
+      <c r="D301" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="302">
+      <c r="A302" s="0">
+        <v>300</v>
+      </c>
+      <c r="B302" s="0" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+      <c r="C302" s="0" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+      <c r="D302" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="303">
+      <c r="A303" s="0">
+        <v>301</v>
+      </c>
+      <c r="B303" s="0" t="inlineStr">
+        <is>
+          <t>Postdoctoral Research Assoc</t>
+        </is>
+      </c>
+      <c r="C303" s="0" t="inlineStr">
+        <is>
+          <t>Postdoctoral Research Assoc</t>
+        </is>
+      </c>
+      <c r="D303" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="304">
+      <c r="A304" s="0">
+        <v>302</v>
+      </c>
+      <c r="B304" s="0" t="inlineStr">
+        <is>
+          <t>Probation Counselor</t>
+        </is>
+      </c>
+      <c r="C304" s="0" t="inlineStr">
+        <is>
+          <t>Probation Counselor</t>
+        </is>
+      </c>
+      <c r="D304" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="305">
+      <c r="A305" s="0">
+        <v>303</v>
+      </c>
+      <c r="B305" s="0" t="inlineStr">
+        <is>
+          <t>Procurement</t>
+        </is>
+      </c>
+      <c r="C305" s="0" t="inlineStr">
+        <is>
+          <t>Procurement</t>
+        </is>
+      </c>
+      <c r="D305" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="306">
+      <c r="A306" s="0">
+        <v>304</v>
+      </c>
+      <c r="B306" s="0" t="inlineStr">
+        <is>
+          <t>Procurement Manager</t>
+        </is>
+      </c>
+      <c r="C306" s="0" t="inlineStr">
+        <is>
+          <t>Procurement Manager</t>
+        </is>
+      </c>
+      <c r="D306" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="307">
+      <c r="A307" s="0">
+        <v>305</v>
+      </c>
+      <c r="B307" s="0" t="inlineStr">
+        <is>
+          <t>Procurement Plng.&amp;Perf.Officer</t>
+        </is>
+      </c>
+      <c r="C307" s="0" t="inlineStr">
+        <is>
+          <t>Procurement Plng.&amp;Perf.Officer</t>
+        </is>
+      </c>
+      <c r="D307" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="308">
+      <c r="A308" s="0">
+        <v>306</v>
+      </c>
+      <c r="B308" s="0" t="inlineStr">
+        <is>
+          <t>Professor</t>
+        </is>
+      </c>
+      <c r="C308" s="0" t="inlineStr">
+        <is>
+          <t>Professor</t>
+        </is>
+      </c>
+      <c r="D308" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="309">
+      <c r="A309" s="0">
+        <v>307</v>
+      </c>
+      <c r="B309" s="0" t="inlineStr">
+        <is>
+          <t>Program Coordinator</t>
+        </is>
+      </c>
+      <c r="C309" s="0" t="inlineStr">
+        <is>
+          <t>Program Coordinator</t>
+        </is>
+      </c>
+      <c r="D309" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="310">
+      <c r="A310" s="0">
+        <v>308</v>
+      </c>
+      <c r="B310" s="0" t="inlineStr">
+        <is>
+          <t>Programme Manager</t>
+        </is>
+      </c>
+      <c r="C310" s="0" t="inlineStr">
+        <is>
+          <t>Programme Manager</t>
+        </is>
+      </c>
+      <c r="D310" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="311">
+      <c r="A311" s="0">
+        <v>309</v>
+      </c>
+      <c r="B311" s="0" t="inlineStr">
+        <is>
+          <t>Programmer and System Analyst</t>
+        </is>
+      </c>
+      <c r="C311" s="0" t="inlineStr">
+        <is>
+          <t>Programmer and System Analyst</t>
+        </is>
+      </c>
+      <c r="D311" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="312">
+      <c r="A312" s="0">
+        <v>310</v>
+      </c>
+      <c r="B312" s="0" t="inlineStr">
+        <is>
+          <t>Project Architect</t>
+        </is>
+      </c>
+      <c r="C312" s="0" t="inlineStr">
+        <is>
+          <t>Project Architect</t>
+        </is>
+      </c>
+      <c r="D312" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="313">
+      <c r="A313" s="0">
+        <v>311</v>
+      </c>
+      <c r="B313" s="0" t="inlineStr">
+        <is>
+          <t>Project Coordinator</t>
+        </is>
+      </c>
+      <c r="C313" s="0" t="inlineStr">
+        <is>
+          <t>Project Coordinator</t>
+        </is>
+      </c>
+      <c r="D313" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="314">
+      <c r="A314" s="0">
+        <v>312</v>
+      </c>
+      <c r="B314" s="0" t="inlineStr">
+        <is>
+          <t>Project Leader</t>
+        </is>
+      </c>
+      <c r="C314" s="0" t="inlineStr">
+        <is>
+          <t>Project Leader</t>
+        </is>
+      </c>
+      <c r="D314" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="315">
+      <c r="A315" s="0">
+        <v>313</v>
+      </c>
+      <c r="B315" s="0" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C315" s="0" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="D315" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="316">
+      <c r="A316" s="0">
+        <v>314</v>
+      </c>
+      <c r="B316" s="0" t="inlineStr">
+        <is>
+          <t>Projects Executive</t>
+        </is>
+      </c>
+      <c r="C316" s="0" t="inlineStr">
+        <is>
+          <t>Projects Executive</t>
+        </is>
+      </c>
+      <c r="D316" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="317">
+      <c r="A317" s="0">
+        <v>315</v>
+      </c>
+      <c r="B317" s="0" t="inlineStr">
+        <is>
+          <t>Provost&amp;Chief Academic</t>
+        </is>
+      </c>
+      <c r="C317" s="0" t="inlineStr">
+        <is>
+          <t>Provost&amp;Chief Academic</t>
+        </is>
+      </c>
+      <c r="D317" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="318">
+      <c r="A318" s="0">
+        <v>316</v>
+      </c>
+      <c r="B318" s="0" t="inlineStr">
+        <is>
+          <t>Public Relations Specialist</t>
+        </is>
+      </c>
+      <c r="C318" s="0" t="inlineStr">
+        <is>
+          <t>Public Relations Specialist</t>
+        </is>
+      </c>
+      <c r="D318" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="319">
+      <c r="A319" s="0">
+        <v>317</v>
+      </c>
+      <c r="B319" s="0" t="inlineStr">
+        <is>
+          <t>Public Services Librarian</t>
+        </is>
+      </c>
+      <c r="C319" s="0" t="inlineStr">
+        <is>
+          <t>Public Services Librarian</t>
+        </is>
+      </c>
+      <c r="D319" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="320">
+      <c r="A320" s="0">
+        <v>318</v>
+      </c>
+      <c r="B320" s="0" t="inlineStr">
+        <is>
+          <t>Pump Mechanic</t>
+        </is>
+      </c>
+      <c r="C320" s="0" t="inlineStr">
+        <is>
+          <t>Pump Mechanic</t>
+        </is>
+      </c>
+      <c r="D320" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="321">
+      <c r="A321" s="0">
+        <v>319</v>
+      </c>
+      <c r="B321" s="0" t="inlineStr">
+        <is>
+          <t>Pump Technician</t>
+        </is>
+      </c>
+      <c r="C321" s="0" t="inlineStr">
+        <is>
+          <t>Pump Technician</t>
+        </is>
+      </c>
+      <c r="D321" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="322">
+      <c r="A322" s="0">
+        <v>320</v>
+      </c>
+      <c r="B322" s="0" t="inlineStr">
+        <is>
+          <t>Purchasing Assistant</t>
+        </is>
+      </c>
+      <c r="C322" s="0" t="inlineStr">
+        <is>
+          <t>Purchasing Assistant</t>
+        </is>
+      </c>
+      <c r="D322" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="323">
+      <c r="A323" s="0">
+        <v>321</v>
+      </c>
+      <c r="B323" s="0" t="inlineStr">
+        <is>
+          <t>Purchasing Supervisor</t>
+        </is>
+      </c>
+      <c r="C323" s="0" t="inlineStr">
+        <is>
+          <t>Purchasing Supervisor</t>
+        </is>
+      </c>
+      <c r="D323" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="324">
+      <c r="A324" s="0">
+        <v>322</v>
+      </c>
+      <c r="B324" s="0" t="inlineStr">
+        <is>
+          <t>Quality Assurance/Control Eng.</t>
+        </is>
+      </c>
+      <c r="C324" s="0" t="inlineStr">
+        <is>
+          <t>Quality Assurance/Control Eng.</t>
+        </is>
+      </c>
+      <c r="D324" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="325">
+      <c r="A325" s="0">
+        <v>323</v>
+      </c>
+      <c r="B325" s="0" t="inlineStr">
+        <is>
+          <t>Receivng In</t>
+        </is>
+      </c>
+      <c r="C325" s="0" t="inlineStr">
+        <is>
+          <t>Receivng In</t>
+        </is>
+      </c>
+      <c r="D325" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="326">
+      <c r="A326" s="0">
+        <v>324</v>
+      </c>
+      <c r="B326" s="0" t="inlineStr">
+        <is>
+          <t>Receptionist</t>
+        </is>
+      </c>
+      <c r="C326" s="0" t="inlineStr">
+        <is>
+          <t>Receptionist</t>
+        </is>
+      </c>
+      <c r="D326" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="327">
+      <c r="A327" s="0">
+        <v>325</v>
+      </c>
+      <c r="B327" s="0" t="inlineStr">
+        <is>
+          <t>Records Analyst</t>
+        </is>
+      </c>
+      <c r="C327" s="0" t="inlineStr">
+        <is>
+          <t>Records Analyst</t>
+        </is>
+      </c>
+      <c r="D327" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="328">
+      <c r="A328" s="0">
+        <v>326</v>
+      </c>
+      <c r="B328" s="0" t="inlineStr">
+        <is>
+          <t>Records Retention Specialist</t>
+        </is>
+      </c>
+      <c r="C328" s="0" t="inlineStr">
+        <is>
+          <t>Records Retention Specialist</t>
+        </is>
+      </c>
+      <c r="D328" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="329">
+      <c r="A329" s="0">
+        <v>327</v>
+      </c>
+      <c r="B329" s="0" t="inlineStr">
+        <is>
+          <t>Res Halls Asst Coordinator</t>
+        </is>
+      </c>
+      <c r="C329" s="0" t="inlineStr">
+        <is>
+          <t>Res Halls Asst Coordinator</t>
+        </is>
+      </c>
+      <c r="D329" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="330">
+      <c r="A330" s="0">
+        <v>328</v>
+      </c>
+      <c r="B330" s="0" t="inlineStr">
+        <is>
+          <t>Research Admin. Coordinator</t>
+        </is>
+      </c>
+      <c r="C330" s="0" t="inlineStr">
+        <is>
+          <t>Research Admin. Coordinator</t>
+        </is>
+      </c>
+      <c r="D330" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="331">
+      <c r="A331" s="0">
+        <v>329</v>
+      </c>
+      <c r="B331" s="0" t="inlineStr">
+        <is>
+          <t>Research Analyst</t>
+        </is>
+      </c>
+      <c r="C331" s="0" t="inlineStr">
+        <is>
+          <t>Research Analyst</t>
+        </is>
+      </c>
+      <c r="D331" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="332">
+      <c r="A332" s="0">
+        <v>330</v>
+      </c>
+      <c r="B332" s="0" t="inlineStr">
+        <is>
+          <t>Research Assistant</t>
+        </is>
+      </c>
+      <c r="C332" s="0" t="inlineStr">
+        <is>
+          <t>Research Assistant</t>
+        </is>
+      </c>
+      <c r="D332" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="333">
+      <c r="A333" s="0">
+        <v>331</v>
+      </c>
+      <c r="B333" s="0" t="inlineStr">
+        <is>
+          <t>Research Associate</t>
+        </is>
+      </c>
+      <c r="C333" s="0" t="inlineStr">
+        <is>
+          <t>Research Associate</t>
+        </is>
+      </c>
+      <c r="D333" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="334">
+      <c r="A334" s="0">
+        <v>332</v>
+      </c>
+      <c r="B334" s="0" t="inlineStr">
+        <is>
+          <t>Residential Halls Coordinator</t>
+        </is>
+      </c>
+      <c r="C334" s="0" t="inlineStr">
+        <is>
+          <t>Residential Halls Coordinator</t>
+        </is>
+      </c>
+      <c r="D334" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="335">
+      <c r="A335" s="0">
+        <v>333</v>
+      </c>
+      <c r="B335" s="0" t="inlineStr">
+        <is>
+          <t>Residential Halls Manager</t>
+        </is>
+      </c>
+      <c r="C335" s="0" t="inlineStr">
+        <is>
+          <t>Residential Halls Manager</t>
+        </is>
+      </c>
+      <c r="D335" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="336">
+      <c r="A336" s="0">
+        <v>334</v>
+      </c>
+      <c r="B336" s="0" t="inlineStr">
+        <is>
+          <t>RH Assistant Coordinator</t>
+        </is>
+      </c>
+      <c r="C336" s="0" t="inlineStr">
+        <is>
+          <t>RH Assistant Coordinator</t>
+        </is>
+      </c>
+      <c r="D336" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="337">
+      <c r="A337" s="0">
+        <v>335</v>
+      </c>
+      <c r="B337" s="0" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="C337" s="0" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="D337" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="338">
+      <c r="A338" s="0">
+        <v>336</v>
+      </c>
+      <c r="B338" s="0" t="inlineStr">
+        <is>
+          <t>Safety Manager</t>
+        </is>
+      </c>
+      <c r="C338" s="0" t="inlineStr">
+        <is>
+          <t>Safety Manager</t>
+        </is>
+      </c>
+      <c r="D338" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="339">
+      <c r="A339" s="0">
+        <v>337</v>
+      </c>
+      <c r="B339" s="0" t="inlineStr">
+        <is>
+          <t>Sales &amp; Marketing Coordinator</t>
+        </is>
+      </c>
+      <c r="C339" s="0" t="inlineStr">
+        <is>
+          <t>Sales &amp; Marketing Coordinator</t>
+        </is>
+      </c>
+      <c r="D339" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="340">
+      <c r="A340" s="0">
+        <v>338</v>
+      </c>
+      <c r="B340" s="0" t="inlineStr">
+        <is>
+          <t>Sales &amp; Marketing Manager</t>
+        </is>
+      </c>
+      <c r="C340" s="0" t="inlineStr">
+        <is>
+          <t>Sales &amp; Marketing Manager</t>
+        </is>
+      </c>
+      <c r="D340" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="341">
+      <c r="A341" s="0">
+        <v>339</v>
+      </c>
+      <c r="B341" s="0" t="inlineStr">
+        <is>
+          <t>School Age Coordinator</t>
+        </is>
+      </c>
+      <c r="C341" s="0" t="inlineStr">
+        <is>
+          <t>School Age Coordinator</t>
+        </is>
+      </c>
+      <c r="D341" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="342">
+      <c r="A342" s="0">
+        <v>340</v>
+      </c>
+      <c r="B342" s="0" t="inlineStr">
+        <is>
+          <t>Secretary</t>
+        </is>
+      </c>
+      <c r="C342" s="0" t="inlineStr">
+        <is>
+          <t>Secretary</t>
+        </is>
+      </c>
+      <c r="D342" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="343">
+      <c r="A343" s="0">
+        <v>341</v>
+      </c>
+      <c r="B343" s="0" t="inlineStr">
+        <is>
+          <t>Secretary Student Affairs</t>
+        </is>
+      </c>
+      <c r="C343" s="0" t="inlineStr">
+        <is>
+          <t>Secretary Student Affairs</t>
+        </is>
+      </c>
+      <c r="D343" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="344">
+      <c r="A344" s="0">
+        <v>342</v>
+      </c>
+      <c r="B344" s="0" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C344" s="0" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="D344" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="345">
+      <c r="A345" s="0">
+        <v>343</v>
+      </c>
+      <c r="B345" s="0" t="inlineStr">
+        <is>
+          <t>Security Analyst II</t>
+        </is>
+      </c>
+      <c r="C345" s="0" t="inlineStr">
+        <is>
+          <t>Security Analyst II</t>
+        </is>
+      </c>
+      <c r="D345" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="346">
+      <c r="A346" s="0">
+        <v>344</v>
+      </c>
+      <c r="B346" s="0" t="inlineStr">
+        <is>
+          <t>Security Coordinator</t>
+        </is>
+      </c>
+      <c r="C346" s="0" t="inlineStr">
+        <is>
+          <t>Security Coordinator</t>
+        </is>
+      </c>
+      <c r="D346" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="347">
+      <c r="A347" s="0">
+        <v>345</v>
+      </c>
+      <c r="B347" s="0" t="inlineStr">
+        <is>
+          <t>Security Guard</t>
+        </is>
+      </c>
+      <c r="C347" s="0" t="inlineStr">
+        <is>
+          <t>Security Guard</t>
+        </is>
+      </c>
+      <c r="D347" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="348">
+      <c r="A348" s="0">
+        <v>346</v>
+      </c>
+      <c r="B348" s="0" t="inlineStr">
+        <is>
+          <t>Sen Dormitory Supervisor Men</t>
+        </is>
+      </c>
+      <c r="C348" s="0" t="inlineStr">
+        <is>
+          <t>Sen Dormitory Supervisor Men</t>
+        </is>
+      </c>
+      <c r="D348" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="349">
+      <c r="A349" s="0">
+        <v>347</v>
+      </c>
+      <c r="B349" s="0" t="inlineStr">
+        <is>
+          <t>Senior A/R Accountant</t>
+        </is>
+      </c>
+      <c r="C349" s="0" t="inlineStr">
+        <is>
+          <t>Senior A/R Accountant</t>
+        </is>
+      </c>
+      <c r="D349" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="350">
+      <c r="A350" s="0">
+        <v>348</v>
+      </c>
+      <c r="B350" s="0" t="inlineStr">
+        <is>
+          <t>Senior Academic Advisor</t>
+        </is>
+      </c>
+      <c r="C350" s="0" t="inlineStr">
+        <is>
+          <t>Senior Academic Advisor</t>
+        </is>
+      </c>
+      <c r="D350" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="351">
+      <c r="A351" s="0">
+        <v>349</v>
+      </c>
+      <c r="B351" s="0" t="inlineStr">
+        <is>
+          <t>Senior Counsellor</t>
+        </is>
+      </c>
+      <c r="C351" s="0" t="inlineStr">
+        <is>
+          <t>Senior Counsellor</t>
+        </is>
+      </c>
+      <c r="D351" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="352">
+      <c r="A352" s="0">
+        <v>350</v>
+      </c>
+      <c r="B352" s="0" t="inlineStr">
+        <is>
+          <t>Senior Database Architect</t>
+        </is>
+      </c>
+      <c r="C352" s="0" t="inlineStr">
+        <is>
+          <t>Senior Database Architect</t>
+        </is>
+      </c>
+      <c r="D352" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="353">
+      <c r="A353" s="0">
+        <v>351</v>
+      </c>
+      <c r="B353" s="0" t="inlineStr">
+        <is>
+          <t>Senior Designer</t>
+        </is>
+      </c>
+      <c r="C353" s="0" t="inlineStr">
+        <is>
+          <t>Senior Designer</t>
+        </is>
+      </c>
+      <c r="D353" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="354">
+      <c r="A354" s="0">
+        <v>352</v>
+      </c>
+      <c r="B354" s="0" t="inlineStr">
+        <is>
+          <t>Senior Dorm Supervisor Men</t>
+        </is>
+      </c>
+      <c r="C354" s="0" t="inlineStr">
+        <is>
+          <t>Senior Dorm Supervisor Men</t>
+        </is>
+      </c>
+      <c r="D354" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="355">
+      <c r="A355" s="0">
+        <v>353</v>
+      </c>
+      <c r="B355" s="0" t="inlineStr">
+        <is>
+          <t>Senior Dormitory Supervisor</t>
+        </is>
+      </c>
+      <c r="C355" s="0" t="inlineStr">
+        <is>
+          <t>Senior Dormitory Supervisor</t>
+        </is>
+      </c>
+      <c r="D355" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="356">
+      <c r="A356" s="0">
+        <v>354</v>
+      </c>
+      <c r="B356" s="0" t="inlineStr">
+        <is>
+          <t>Senior HR Manager</t>
+        </is>
+      </c>
+      <c r="C356" s="0" t="inlineStr">
+        <is>
+          <t>Senior HR Manager</t>
+        </is>
+      </c>
+      <c r="D356" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="357">
+      <c r="A357" s="0">
+        <v>355</v>
+      </c>
+      <c r="B357" s="0" t="inlineStr">
+        <is>
+          <t>Senior Human Resources</t>
+        </is>
+      </c>
+      <c r="C357" s="0" t="inlineStr">
+        <is>
+          <t>Senior Human Resources</t>
+        </is>
+      </c>
+      <c r="D357" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="358">
+      <c r="A358" s="0">
+        <v>356</v>
+      </c>
+      <c r="B358" s="0" t="inlineStr">
+        <is>
+          <t>Senior Instructor</t>
+        </is>
+      </c>
+      <c r="C358" s="0" t="inlineStr">
+        <is>
+          <t>Senior Instructor</t>
+        </is>
+      </c>
+      <c r="D358" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="359">
+      <c r="A359" s="0">
+        <v>357</v>
+      </c>
+      <c r="B359" s="0" t="inlineStr">
+        <is>
+          <t>Senior IT Specialist</t>
+        </is>
+      </c>
+      <c r="C359" s="0" t="inlineStr">
+        <is>
+          <t>Senior IT Specialist</t>
+        </is>
+      </c>
+      <c r="D359" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="360">
+      <c r="A360" s="0">
+        <v>358</v>
+      </c>
+      <c r="B360" s="0" t="inlineStr">
+        <is>
+          <t>Senior Laboratory Instructor</t>
+        </is>
+      </c>
+      <c r="C360" s="0" t="inlineStr">
+        <is>
+          <t>Senior Laboratory Instructor</t>
+        </is>
+      </c>
+      <c r="D360" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="361">
+      <c r="A361" s="0">
+        <v>359</v>
+      </c>
+      <c r="B361" s="0" t="inlineStr">
+        <is>
+          <t>Senior Laboratory Specialist</t>
+        </is>
+      </c>
+      <c r="C361" s="0" t="inlineStr">
+        <is>
+          <t>Senior Laboratory Specialist</t>
+        </is>
+      </c>
+      <c r="D361" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="362">
+      <c r="A362" s="0">
+        <v>360</v>
+      </c>
+      <c r="B362" s="0" t="inlineStr">
+        <is>
+          <t>Senior Laboratory Specialist.</t>
+        </is>
+      </c>
+      <c r="C362" s="0" t="inlineStr">
+        <is>
+          <t>Senior Laboratory Specialist.</t>
+        </is>
+      </c>
+      <c r="D362" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="363">
+      <c r="A363" s="0">
+        <v>361</v>
+      </c>
+      <c r="B363" s="0" t="inlineStr">
+        <is>
+          <t>Senior Laboratory Technician</t>
+        </is>
+      </c>
+      <c r="C363" s="0" t="inlineStr">
+        <is>
+          <t>Senior Laboratory Technician</t>
+        </is>
+      </c>
+      <c r="D363" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="364">
+      <c r="A364" s="0">
+        <v>362</v>
+      </c>
+      <c r="B364" s="0" t="inlineStr">
+        <is>
+          <t>Senior Lecturer</t>
+        </is>
+      </c>
+      <c r="C364" s="0" t="inlineStr">
+        <is>
+          <t>Senior Lecturer</t>
+        </is>
+      </c>
+      <c r="D364" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="365">
+      <c r="A365" s="0">
+        <v>363</v>
+      </c>
+      <c r="B365" s="0" t="inlineStr">
+        <is>
+          <t>Senior Marketing Coordinator</t>
+        </is>
+      </c>
+      <c r="C365" s="0" t="inlineStr">
+        <is>
+          <t>Senior Marketing Coordinator</t>
+        </is>
+      </c>
+      <c r="D365" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="366">
+      <c r="A366" s="0">
+        <v>364</v>
+      </c>
+      <c r="B366" s="0" t="inlineStr">
+        <is>
+          <t>Senior Network Architect</t>
+        </is>
+      </c>
+      <c r="C366" s="0" t="inlineStr">
+        <is>
+          <t>Senior Network Architect</t>
+        </is>
+      </c>
+      <c r="D366" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="367">
+      <c r="A367" s="0">
+        <v>365</v>
+      </c>
+      <c r="B367" s="0" t="inlineStr">
+        <is>
+          <t>Senior Project Architect</t>
+        </is>
+      </c>
+      <c r="C367" s="0" t="inlineStr">
+        <is>
+          <t>Senior Project Architect</t>
+        </is>
+      </c>
+      <c r="D367" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="368">
+      <c r="A368" s="0">
+        <v>366</v>
+      </c>
+      <c r="B368" s="0" t="inlineStr">
+        <is>
+          <t>Senior Projects Administrator</t>
+        </is>
+      </c>
+      <c r="C368" s="0" t="inlineStr">
+        <is>
+          <t>Senior Projects Administrator</t>
+        </is>
+      </c>
+      <c r="D368" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="369">
+      <c r="A369" s="0">
+        <v>367</v>
+      </c>
+      <c r="B369" s="0" t="inlineStr">
+        <is>
+          <t>Senior Records Analyst</t>
+        </is>
+      </c>
+      <c r="C369" s="0" t="inlineStr">
+        <is>
+          <t>Senior Records Analyst</t>
+        </is>
+      </c>
+      <c r="D369" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="370">
+      <c r="A370" s="0">
+        <v>368</v>
+      </c>
+      <c r="B370" s="0" t="inlineStr">
+        <is>
+          <t>Senior Shop Master</t>
+        </is>
+      </c>
+      <c r="C370" s="0" t="inlineStr">
+        <is>
+          <t>Senior Shop Master</t>
+        </is>
+      </c>
+      <c r="D370" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="371">
+      <c r="A371" s="0">
+        <v>369</v>
+      </c>
+      <c r="B371" s="0" t="inlineStr">
+        <is>
+          <t>Senior Student Counselor</t>
+        </is>
+      </c>
+      <c r="C371" s="0" t="inlineStr">
+        <is>
+          <t>Senior Student Counselor</t>
+        </is>
+      </c>
+      <c r="D371" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="372">
+      <c r="A372" s="0">
+        <v>370</v>
+      </c>
+      <c r="B372" s="0" t="inlineStr">
+        <is>
+          <t>Senior Studio Specialist</t>
+        </is>
+      </c>
+      <c r="C372" s="0" t="inlineStr">
+        <is>
+          <t>Senior Studio Specialist</t>
+        </is>
+      </c>
+      <c r="D372" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="373">
+      <c r="A373" s="0">
+        <v>371</v>
+      </c>
+      <c r="B373" s="0" t="inlineStr">
+        <is>
+          <t>Senior Studio Technician</t>
+        </is>
+      </c>
+      <c r="C373" s="0" t="inlineStr">
+        <is>
+          <t>Senior Studio Technician</t>
+        </is>
+      </c>
+      <c r="D373" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="374">
+      <c r="A374" s="0">
+        <v>372</v>
+      </c>
+      <c r="B374" s="0" t="inlineStr">
+        <is>
+          <t>Senior Systems Eng. III</t>
+        </is>
+      </c>
+      <c r="C374" s="0" t="inlineStr">
+        <is>
+          <t>Senior Systems Eng. III</t>
+        </is>
+      </c>
+      <c r="D374" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="375">
+      <c r="A375" s="0">
+        <v>373</v>
+      </c>
+      <c r="B375" s="0" t="inlineStr">
+        <is>
+          <t>Senior Systems Engineer</t>
+        </is>
+      </c>
+      <c r="C375" s="0" t="inlineStr">
+        <is>
+          <t>Senior Systems Engineer</t>
+        </is>
+      </c>
+      <c r="D375" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="376">
+      <c r="A376" s="0">
+        <v>374</v>
+      </c>
+      <c r="B376" s="0" t="inlineStr">
+        <is>
+          <t>Senior Teacher</t>
+        </is>
+      </c>
+      <c r="C376" s="0" t="inlineStr">
+        <is>
+          <t>Senior Teacher</t>
+        </is>
+      </c>
+      <c r="D376" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="377">
+      <c r="A377" s="0">
+        <v>375</v>
+      </c>
+      <c r="B377" s="0" t="inlineStr">
+        <is>
+          <t>Senior Trainer</t>
+        </is>
+      </c>
+      <c r="C377" s="0" t="inlineStr">
+        <is>
+          <t>Senior Trainer</t>
+        </is>
+      </c>
+      <c r="D377" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="378">
+      <c r="A378" s="0">
+        <v>376</v>
+      </c>
+      <c r="B378" s="0" t="inlineStr">
+        <is>
+          <t>Senior Web Architect</t>
+        </is>
+      </c>
+      <c r="C378" s="0" t="inlineStr">
+        <is>
+          <t>Senior Web Architect</t>
+        </is>
+      </c>
+      <c r="D378" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="379">
+      <c r="A379" s="0">
+        <v>377</v>
+      </c>
+      <c r="B379" s="0" t="inlineStr">
+        <is>
+          <t>Shop Supr Engineering</t>
+        </is>
+      </c>
+      <c r="C379" s="0" t="inlineStr">
+        <is>
+          <t>Shop Supr Engineering</t>
+        </is>
+      </c>
+      <c r="D379" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="380">
+      <c r="A380" s="0">
+        <v>378</v>
+      </c>
+      <c r="B380" s="0" t="inlineStr">
+        <is>
+          <t>Snr.Recruiting &amp; Outreach Cord</t>
+        </is>
+      </c>
+      <c r="C380" s="0" t="inlineStr">
+        <is>
+          <t>Snr.Recruiting &amp; Outreach Cord</t>
+        </is>
+      </c>
+      <c r="D380" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="381">
+      <c r="A381" s="0">
+        <v>379</v>
+      </c>
+      <c r="B381" s="0" t="inlineStr">
+        <is>
+          <t>Special Advis</t>
+        </is>
+      </c>
+      <c r="C381" s="0" t="inlineStr">
+        <is>
+          <t>Special Advis</t>
+        </is>
+      </c>
+      <c r="D381" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="382">
+      <c r="A382" s="0">
+        <v>380</v>
+      </c>
+      <c r="B382" s="0" t="inlineStr">
+        <is>
+          <t>Special Advisor to Chancellor</t>
+        </is>
+      </c>
+      <c r="C382" s="0" t="inlineStr">
+        <is>
+          <t>Special Advisor to Chancellor</t>
+        </is>
+      </c>
+      <c r="D382" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="383">
+      <c r="A383" s="0">
+        <v>381</v>
+      </c>
+      <c r="B383" s="0" t="inlineStr">
+        <is>
+          <t>Special Consult. to Chancellor</t>
+        </is>
+      </c>
+      <c r="C383" s="0" t="inlineStr">
+        <is>
+          <t>Special Consult. to Chancellor</t>
+        </is>
+      </c>
+      <c r="D383" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="384">
+      <c r="A384" s="0">
+        <v>382</v>
+      </c>
+      <c r="B384" s="0" t="inlineStr">
+        <is>
+          <t>Special Projects Librarian</t>
+        </is>
+      </c>
+      <c r="C384" s="0" t="inlineStr">
+        <is>
+          <t>Special Projects Librarian</t>
+        </is>
+      </c>
+      <c r="D384" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="385">
+      <c r="A385" s="0">
+        <v>383</v>
+      </c>
+      <c r="B385" s="0" t="inlineStr">
+        <is>
+          <t>Sport Complex Manager</t>
+        </is>
+      </c>
+      <c r="C385" s="0" t="inlineStr">
+        <is>
+          <t>Sport Complex Manager</t>
+        </is>
+      </c>
+      <c r="D385" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="386">
+      <c r="A386" s="0">
+        <v>384</v>
+      </c>
+      <c r="B386" s="0" t="inlineStr">
+        <is>
+          <t>Sports Coordinator</t>
+        </is>
+      </c>
+      <c r="C386" s="0" t="inlineStr">
+        <is>
+          <t>Sports Coordinator</t>
+        </is>
+      </c>
+      <c r="D386" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="387">
+      <c r="A387" s="0">
+        <v>385</v>
+      </c>
+      <c r="B387" s="0" t="inlineStr">
+        <is>
+          <t>Sr Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="C387" s="0" t="inlineStr">
+        <is>
+          <t>Sr Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="D387" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="388">
+      <c r="A388" s="0">
+        <v>386</v>
+      </c>
+      <c r="B388" s="0" t="inlineStr">
+        <is>
+          <t>Sr Clerk Copy Centre</t>
+        </is>
+      </c>
+      <c r="C388" s="0" t="inlineStr">
+        <is>
+          <t>Sr Clerk Copy Centre</t>
+        </is>
+      </c>
+      <c r="D388" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="389">
+      <c r="A389" s="0">
+        <v>387</v>
+      </c>
+      <c r="B389" s="0" t="inlineStr">
+        <is>
+          <t>Sr Lab Technician Chem</t>
+        </is>
+      </c>
+      <c r="C389" s="0" t="inlineStr">
+        <is>
+          <t>Sr Lab Technician Chem</t>
+        </is>
+      </c>
+      <c r="D389" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="390">
+      <c r="A390" s="0">
+        <v>388</v>
+      </c>
+      <c r="B390" s="0" t="inlineStr">
+        <is>
+          <t>Sr Maintenance Manager</t>
+        </is>
+      </c>
+      <c r="C390" s="0" t="inlineStr">
+        <is>
+          <t>Sr Maintenance Manager</t>
+        </is>
+      </c>
+      <c r="D390" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="391">
+      <c r="A391" s="0">
+        <v>389</v>
+      </c>
+      <c r="B391" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="C391" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="D391" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="392">
+      <c r="A392" s="0">
+        <v>390</v>
+      </c>
+      <c r="B392" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Aluminum Technician</t>
+        </is>
+      </c>
+      <c r="C392" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Aluminum Technician</t>
+        </is>
+      </c>
+      <c r="D392" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="393">
+      <c r="A393" s="0">
+        <v>391</v>
+      </c>
+      <c r="B393" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Laboratory Specialist</t>
+        </is>
+      </c>
+      <c r="C393" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Laboratory Specialist</t>
+        </is>
+      </c>
+      <c r="D393" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="394">
+      <c r="A394" s="0">
+        <v>392</v>
+      </c>
+      <c r="B394" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Research Associate</t>
+        </is>
+      </c>
+      <c r="C394" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Research Associate</t>
+        </is>
+      </c>
+      <c r="D394" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="395">
+      <c r="A395" s="0">
+        <v>393</v>
+      </c>
+      <c r="B395" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Student Counselor</t>
+        </is>
+      </c>
+      <c r="C395" s="0" t="inlineStr">
+        <is>
+          <t>Sr. Student Counselor</t>
+        </is>
+      </c>
+      <c r="D395" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="396">
+      <c r="A396" s="0">
+        <v>394</v>
+      </c>
+      <c r="B396" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="C396" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="D396" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="397">
+      <c r="A397" s="0">
+        <v>395</v>
+      </c>
+      <c r="B397" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Procurement</t>
+        </is>
+      </c>
+      <c r="C397" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Procurement</t>
+        </is>
+      </c>
+      <c r="D397" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="398">
+      <c r="A398" s="0">
+        <v>396</v>
+      </c>
+      <c r="B398" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Procurement Spelist</t>
+        </is>
+      </c>
+      <c r="C398" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Procurement Spelist</t>
+        </is>
+      </c>
+      <c r="D398" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="399">
+      <c r="A399" s="0">
+        <v>397</v>
+      </c>
+      <c r="B399" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Receptionist/Storekeeper</t>
+        </is>
+      </c>
+      <c r="C399" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Receptionist/Storekeeper</t>
+        </is>
+      </c>
+      <c r="D399" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="400">
+      <c r="A400" s="0">
+        <v>398</v>
+      </c>
+      <c r="B400" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Researcher &amp; Writing Spclst</t>
+        </is>
+      </c>
+      <c r="C400" s="0" t="inlineStr">
+        <is>
+          <t>Sr.Researcher &amp; Writing Spclst</t>
+        </is>
+      </c>
+      <c r="D400" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="401">
+      <c r="A401" s="0">
+        <v>399</v>
+      </c>
+      <c r="B401" s="0" t="inlineStr">
+        <is>
+          <t>Staff Nurse</t>
+        </is>
+      </c>
+      <c r="C401" s="0" t="inlineStr">
+        <is>
+          <t>Staff Nurse</t>
+        </is>
+      </c>
+      <c r="D401" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="402">
+      <c r="A402" s="0">
+        <v>400</v>
+      </c>
+      <c r="B402" s="0" t="inlineStr">
+        <is>
+          <t>Std. Clubs&amp;Org. Manager</t>
+        </is>
+      </c>
+      <c r="C402" s="0" t="inlineStr">
+        <is>
+          <t>Std. Clubs&amp;Org. Manager</t>
+        </is>
+      </c>
+      <c r="D402" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="403">
+      <c r="A403" s="0">
+        <v>401</v>
+      </c>
+      <c r="B403" s="0" t="inlineStr">
+        <is>
+          <t>Storeman</t>
+        </is>
+      </c>
+      <c r="C403" s="0" t="inlineStr">
+        <is>
+          <t>Storeman</t>
+        </is>
+      </c>
+      <c r="D403" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="404">
+      <c r="A404" s="0">
+        <v>402</v>
+      </c>
+      <c r="B404" s="0" t="inlineStr">
+        <is>
+          <t>Stud Activites Assist. Coord</t>
+        </is>
+      </c>
+      <c r="C404" s="0" t="inlineStr">
+        <is>
+          <t>Stud Activites Assist. Coord</t>
+        </is>
+      </c>
+      <c r="D404" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="405">
+      <c r="A405" s="0">
+        <v>403</v>
+      </c>
+      <c r="B405" s="0" t="inlineStr">
+        <is>
+          <t>Student Actitvities Cordinator</t>
+        </is>
+      </c>
+      <c r="C405" s="0" t="inlineStr">
+        <is>
+          <t>Student Actitvities Cordinator</t>
+        </is>
+      </c>
+      <c r="D405" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="406">
+      <c r="A406" s="0">
+        <v>404</v>
+      </c>
+      <c r="B406" s="0" t="inlineStr">
+        <is>
+          <t>Student Activities Coordinator</t>
+        </is>
+      </c>
+      <c r="C406" s="0" t="inlineStr">
+        <is>
+          <t>Student Activities Coordinator</t>
+        </is>
+      </c>
+      <c r="D406" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="407">
+      <c r="A407" s="0">
+        <v>405</v>
+      </c>
+      <c r="B407" s="0" t="inlineStr">
+        <is>
+          <t>Student Advisor/Counselor</t>
+        </is>
+      </c>
+      <c r="C407" s="0" t="inlineStr">
+        <is>
+          <t>Student Advisor/Counselor</t>
+        </is>
+      </c>
+      <c r="D407" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="408">
+      <c r="A408" s="0">
+        <v>406</v>
+      </c>
+      <c r="B408" s="0" t="inlineStr">
+        <is>
+          <t>Student Councelor</t>
+        </is>
+      </c>
+      <c r="C408" s="0" t="inlineStr">
+        <is>
+          <t>Student Councelor</t>
+        </is>
+      </c>
+      <c r="D408" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="409">
+      <c r="A409" s="0">
+        <v>407</v>
+      </c>
+      <c r="B409" s="0" t="inlineStr">
+        <is>
+          <t>Student Counsellor</t>
+        </is>
+      </c>
+      <c r="C409" s="0" t="inlineStr">
+        <is>
+          <t>Student Counsellor</t>
+        </is>
+      </c>
+      <c r="D409" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="410">
+      <c r="A410" s="0">
+        <v>408</v>
+      </c>
+      <c r="B410" s="0" t="inlineStr">
+        <is>
+          <t>Student Counselor</t>
+        </is>
+      </c>
+      <c r="C410" s="0" t="inlineStr">
+        <is>
+          <t>Student Counselor</t>
+        </is>
+      </c>
+      <c r="D410" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="411">
+      <c r="A411" s="0">
+        <v>409</v>
+      </c>
+      <c r="B411" s="0" t="inlineStr">
+        <is>
+          <t>Student Employment Coord</t>
+        </is>
+      </c>
+      <c r="C411" s="0" t="inlineStr">
+        <is>
+          <t>Student Employment Coord</t>
+        </is>
+      </c>
+      <c r="D411" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="412">
+      <c r="A412" s="0">
+        <v>410</v>
+      </c>
+      <c r="B412" s="0" t="inlineStr">
+        <is>
+          <t>Student Employment Manager</t>
+        </is>
+      </c>
+      <c r="C412" s="0" t="inlineStr">
+        <is>
+          <t>Student Employment Manager</t>
+        </is>
+      </c>
+      <c r="D412" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="413">
+      <c r="A413" s="0">
+        <v>411</v>
+      </c>
+      <c r="B413" s="0" t="inlineStr">
+        <is>
+          <t>Student Recruitment</t>
+        </is>
+      </c>
+      <c r="C413" s="0" t="inlineStr">
+        <is>
+          <t>Student Recruitment</t>
+        </is>
+      </c>
+      <c r="D413" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="414">
+      <c r="A414" s="0">
+        <v>412</v>
+      </c>
+      <c r="B414" s="0" t="inlineStr">
+        <is>
+          <t>Student Recruitment Cord</t>
+        </is>
+      </c>
+      <c r="C414" s="0" t="inlineStr">
+        <is>
+          <t>Student Recruitment Cord</t>
+        </is>
+      </c>
+      <c r="D414" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="415">
+      <c r="A415" s="0">
+        <v>413</v>
+      </c>
+      <c r="B415" s="0" t="inlineStr">
+        <is>
+          <t>Student Recruitment Cordinatr</t>
+        </is>
+      </c>
+      <c r="C415" s="0" t="inlineStr">
+        <is>
+          <t>Student Recruitment Cordinatr</t>
+        </is>
+      </c>
+      <c r="D415" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="416">
+      <c r="A416" s="0">
+        <v>414</v>
+      </c>
+      <c r="B416" s="0" t="inlineStr">
+        <is>
+          <t>Student Shop Master</t>
+        </is>
+      </c>
+      <c r="C416" s="0" t="inlineStr">
+        <is>
+          <t>Student Shop Master</t>
+        </is>
+      </c>
+      <c r="D416" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="417">
+      <c r="A417" s="0">
+        <v>415</v>
+      </c>
+      <c r="B417" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor</t>
+        </is>
+      </c>
+      <c r="C417" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor</t>
+        </is>
+      </c>
+      <c r="D417" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="418">
+      <c r="A418" s="0">
+        <v>416</v>
+      </c>
+      <c r="B418" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor A/C</t>
+        </is>
+      </c>
+      <c r="C418" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor A/C</t>
+        </is>
+      </c>
+      <c r="D418" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="419">
+      <c r="A419" s="0">
+        <v>417</v>
+      </c>
+      <c r="B419" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor Appliances</t>
+        </is>
+      </c>
+      <c r="C419" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor Appliances</t>
+        </is>
+      </c>
+      <c r="D419" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="420">
+      <c r="A420" s="0">
+        <v>418</v>
+      </c>
+      <c r="B420" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor Computer Services</t>
+        </is>
+      </c>
+      <c r="C420" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor Computer Services</t>
+        </is>
+      </c>
+      <c r="D420" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="421">
+      <c r="A421" s="0">
+        <v>419</v>
+      </c>
+      <c r="B421" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor Dorm Female</t>
+        </is>
+      </c>
+      <c r="C421" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor Dorm Female</t>
+        </is>
+      </c>
+      <c r="D421" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="422">
+      <c r="A422" s="0">
+        <v>420</v>
+      </c>
+      <c r="B422" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor for Grad. Programs</t>
+        </is>
+      </c>
+      <c r="C422" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor for Grad. Programs</t>
+        </is>
+      </c>
+      <c r="D422" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="423">
+      <c r="A423" s="0">
+        <v>421</v>
+      </c>
+      <c r="B423" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor Transport &amp; Housing</t>
+        </is>
+      </c>
+      <c r="C423" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor Transport &amp; Housing</t>
+        </is>
+      </c>
+      <c r="D423" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="424">
+      <c r="A424" s="0">
+        <v>422</v>
+      </c>
+      <c r="B424" s="0" t="inlineStr">
+        <is>
+          <t>Sustainability Administrator</t>
+        </is>
+      </c>
+      <c r="C424" s="0" t="inlineStr">
+        <is>
+          <t>Sustainability Administrator</t>
+        </is>
+      </c>
+      <c r="D424" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="425">
+      <c r="A425" s="0">
+        <v>423</v>
+      </c>
+      <c r="B425" s="0" t="inlineStr">
+        <is>
+          <t>Sustainability Manager</t>
+        </is>
+      </c>
+      <c r="C425" s="0" t="inlineStr">
+        <is>
+          <t>Sustainability Manager</t>
+        </is>
+      </c>
+      <c r="D425" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="426">
+      <c r="A426" s="0">
+        <v>424</v>
+      </c>
+      <c r="B426" s="0" t="inlineStr">
+        <is>
+          <t>System Analyst II</t>
+        </is>
+      </c>
+      <c r="C426" s="0" t="inlineStr">
+        <is>
+          <t>System Analyst II</t>
+        </is>
+      </c>
+      <c r="D426" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="427">
+      <c r="A427" s="0">
+        <v>425</v>
+      </c>
+      <c r="B427" s="0" t="inlineStr">
+        <is>
+          <t>System Engineer I</t>
+        </is>
+      </c>
+      <c r="C427" s="0" t="inlineStr">
+        <is>
+          <t>System Engineer I</t>
+        </is>
+      </c>
+      <c r="D427" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="428">
+      <c r="A428" s="0">
+        <v>426</v>
+      </c>
+      <c r="B428" s="0" t="inlineStr">
+        <is>
+          <t>Systems Engineer I</t>
+        </is>
+      </c>
+      <c r="C428" s="0" t="inlineStr">
+        <is>
+          <t>Systems Engineer I</t>
+        </is>
+      </c>
+      <c r="D428" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="429">
+      <c r="A429" s="0">
+        <v>427</v>
+      </c>
+      <c r="B429" s="0" t="inlineStr">
+        <is>
+          <t>Systems Engineer II</t>
+        </is>
+      </c>
+      <c r="C429" s="0" t="inlineStr">
+        <is>
+          <t>Systems Engineer II</t>
+        </is>
+      </c>
+      <c r="D429" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="430">
+      <c r="A430" s="0">
+        <v>428</v>
+      </c>
+      <c r="B430" s="0" t="inlineStr">
+        <is>
+          <t>Systems Team Leader</t>
+        </is>
+      </c>
+      <c r="C430" s="0" t="inlineStr">
+        <is>
+          <t>Systems Team Leader</t>
+        </is>
+      </c>
+      <c r="D430" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="431">
+      <c r="A431" s="0">
+        <v>429</v>
+      </c>
+      <c r="B431" s="0" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="C431" s="0" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="D431" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="432">
+      <c r="A432" s="0">
+        <v>430</v>
+      </c>
+      <c r="B432" s="0" t="inlineStr">
+        <is>
+          <t>Teacher Assistant</t>
+        </is>
+      </c>
+      <c r="C432" s="0" t="inlineStr">
+        <is>
+          <t>Teacher Assistant</t>
+        </is>
+      </c>
+      <c r="D432" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="433">
+      <c r="A433" s="0">
+        <v>431</v>
+      </c>
+      <c r="B433" s="0" t="inlineStr">
+        <is>
+          <t>Teacher Helper</t>
+        </is>
+      </c>
+      <c r="C433" s="0" t="inlineStr">
+        <is>
+          <t>Teacher Helper</t>
+        </is>
+      </c>
+      <c r="D433" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="434">
+      <c r="A434" s="0">
+        <v>432</v>
+      </c>
+      <c r="B434" s="0" t="inlineStr">
+        <is>
+          <t>Teacher Supervisor</t>
+        </is>
+      </c>
+      <c r="C434" s="0" t="inlineStr">
+        <is>
+          <t>Teacher Supervisor</t>
+        </is>
+      </c>
+      <c r="D434" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="435">
+      <c r="A435" s="0">
+        <v>433</v>
+      </c>
+      <c r="B435" s="0" t="inlineStr">
+        <is>
+          <t>Teacher/Supervisor</t>
+        </is>
+      </c>
+      <c r="C435" s="0" t="inlineStr">
+        <is>
+          <t>Teacher/Supervisor</t>
+        </is>
+      </c>
+      <c r="D435" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="436">
+      <c r="A436" s="0">
+        <v>434</v>
+      </c>
+      <c r="B436" s="0" t="inlineStr">
+        <is>
+          <t>Teaching Assistant</t>
+        </is>
+      </c>
+      <c r="C436" s="0" t="inlineStr">
+        <is>
+          <t>Teaching Assistant</t>
+        </is>
+      </c>
+      <c r="D436" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="437">
+      <c r="A437" s="0">
+        <v>435</v>
+      </c>
+      <c r="B437" s="0" t="inlineStr">
+        <is>
+          <t>Technical Assistant for Maximo</t>
+        </is>
+      </c>
+      <c r="C437" s="0" t="inlineStr">
+        <is>
+          <t>Technical Assistant for Maximo</t>
+        </is>
+      </c>
+      <c r="D437" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="438">
+      <c r="A438" s="0">
+        <v>436</v>
+      </c>
+      <c r="B438" s="0" t="inlineStr">
+        <is>
+          <t>Technical Equipment Assistant</t>
+        </is>
+      </c>
+      <c r="C438" s="0" t="inlineStr">
+        <is>
+          <t>Technical Equipment Assistant</t>
+        </is>
+      </c>
+      <c r="D438" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="439">
+      <c r="A439" s="0">
+        <v>437</v>
+      </c>
+      <c r="B439" s="0" t="inlineStr">
+        <is>
+          <t>Technical Foreman</t>
+        </is>
+      </c>
+      <c r="C439" s="0" t="inlineStr">
+        <is>
+          <t>Technical Foreman</t>
+        </is>
+      </c>
+      <c r="D439" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="440">
+      <c r="A440" s="0">
+        <v>438</v>
+      </c>
+      <c r="B440" s="0" t="inlineStr">
+        <is>
+          <t>Technical Services Librarian</t>
+        </is>
+      </c>
+      <c r="C440" s="0" t="inlineStr">
+        <is>
+          <t>Technical Services Librarian</t>
+        </is>
+      </c>
+      <c r="D440" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="441">
+      <c r="A441" s="0">
+        <v>439</v>
+      </c>
+      <c r="B441" s="0" t="inlineStr">
+        <is>
+          <t>Technology&amp;Tech Serv Librarian</t>
+        </is>
+      </c>
+      <c r="C441" s="0" t="inlineStr">
+        <is>
+          <t>Technology&amp;Tech Serv Librarian</t>
+        </is>
+      </c>
+      <c r="D441" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="442">
+      <c r="A442" s="0">
+        <v>440</v>
+      </c>
+      <c r="B442" s="0" t="inlineStr">
+        <is>
+          <t>Tele Operator/Receptionist</t>
+        </is>
+      </c>
+      <c r="C442" s="0" t="inlineStr">
+        <is>
+          <t>Tele Operator/Receptionist</t>
+        </is>
+      </c>
+      <c r="D442" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="443">
+      <c r="A443" s="0">
+        <v>441</v>
+      </c>
+      <c r="B443" s="0" t="inlineStr">
+        <is>
+          <t>Telecommunication Engineer</t>
+        </is>
+      </c>
+      <c r="C443" s="0" t="inlineStr">
+        <is>
+          <t>Telecommunication Engineer</t>
+        </is>
+      </c>
+      <c r="D443" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="444">
+      <c r="A444" s="0">
+        <v>442</v>
+      </c>
+      <c r="B444" s="0" t="inlineStr">
+        <is>
+          <t>Telecommunications Architect</t>
+        </is>
+      </c>
+      <c r="C444" s="0" t="inlineStr">
+        <is>
+          <t>Telecommunications Architect</t>
+        </is>
+      </c>
+      <c r="D444" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="445">
+      <c r="A445" s="0">
+        <v>443</v>
+      </c>
+      <c r="B445" s="0" t="inlineStr">
+        <is>
+          <t>Telephone Operator</t>
+        </is>
+      </c>
+      <c r="C445" s="0" t="inlineStr">
+        <is>
+          <t>Telephone Operator</t>
+        </is>
+      </c>
+      <c r="D445" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="446">
+      <c r="A446" s="0">
+        <v>444</v>
+      </c>
+      <c r="B446" s="0" t="inlineStr">
+        <is>
+          <t>Temp Admin Support</t>
+        </is>
+      </c>
+      <c r="C446" s="0" t="inlineStr">
+        <is>
+          <t>Temp Admin Support</t>
+        </is>
+      </c>
+      <c r="D446" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="447">
+      <c r="A447" s="0">
+        <v>445</v>
+      </c>
+      <c r="B447" s="0" t="inlineStr">
+        <is>
+          <t>Temp PT Secretary</t>
+        </is>
+      </c>
+      <c r="C447" s="0" t="inlineStr">
+        <is>
+          <t>Temp PT Secretary</t>
+        </is>
+      </c>
+      <c r="D447" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="448">
+      <c r="A448" s="0">
+        <v>446</v>
+      </c>
+      <c r="B448" s="0" t="inlineStr">
+        <is>
+          <t>Temp Telephone Operator</t>
+        </is>
+      </c>
+      <c r="C448" s="0" t="inlineStr">
+        <is>
+          <t>Temp Telephone Operator</t>
+        </is>
+      </c>
+      <c r="D448" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="449">
+      <c r="A449" s="0">
+        <v>447</v>
+      </c>
+      <c r="B449" s="0" t="inlineStr">
+        <is>
+          <t>Training &amp; Project Cord</t>
+        </is>
+      </c>
+      <c r="C449" s="0" t="inlineStr">
+        <is>
+          <t>Training &amp; Project Cord</t>
+        </is>
+      </c>
+      <c r="D449" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="450">
+      <c r="A450" s="0">
+        <v>448</v>
+      </c>
+      <c r="B450" s="0" t="inlineStr">
+        <is>
+          <t>University Architect</t>
+        </is>
+      </c>
+      <c r="C450" s="0" t="inlineStr">
+        <is>
+          <t>University Architect</t>
+        </is>
+      </c>
+      <c r="D450" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="451">
+      <c r="A451" s="0">
+        <v>449</v>
+      </c>
+      <c r="B451" s="0" t="inlineStr">
+        <is>
+          <t>University Librarian</t>
+        </is>
+      </c>
+      <c r="C451" s="0" t="inlineStr">
+        <is>
+          <t>University Librarian</t>
+        </is>
+      </c>
+      <c r="D451" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="452">
+      <c r="A452" s="0">
+        <v>450</v>
+      </c>
+      <c r="B452" s="0" t="inlineStr">
+        <is>
+          <t>VC for Academic Affairs</t>
+        </is>
+      </c>
+      <c r="C452" s="0" t="inlineStr">
+        <is>
+          <t>VC for Academic Affairs</t>
+        </is>
+      </c>
+      <c r="D452" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="453">
+      <c r="A453" s="0">
+        <v>451</v>
+      </c>
+      <c r="B453" s="0" t="inlineStr">
+        <is>
+          <t>Vice Chancellor for P. Affairs</t>
+        </is>
+      </c>
+      <c r="C453" s="0" t="inlineStr">
+        <is>
+          <t>Vice Chancellor for P. Affairs</t>
+        </is>
+      </c>
+      <c r="D453" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="454">
+      <c r="A454" s="0">
+        <v>452</v>
+      </c>
+      <c r="B454" s="0" t="inlineStr">
+        <is>
+          <t>Vice Provost</t>
+        </is>
+      </c>
+      <c r="C454" s="0" t="inlineStr">
+        <is>
+          <t>Vice Provost</t>
+        </is>
+      </c>
+      <c r="D454" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="455">
+      <c r="A455" s="0">
+        <v>453</v>
+      </c>
+      <c r="B455" s="0" t="inlineStr">
+        <is>
+          <t>Vice Provost for U/G Aff.&amp; Instructor</t>
+        </is>
+      </c>
+      <c r="C455" s="0" t="inlineStr">
+        <is>
+          <t>Vice Provost for U/G Aff.&amp; Instructor</t>
+        </is>
+      </c>
+      <c r="D455" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="456">
+      <c r="A456" s="0">
+        <v>454</v>
+      </c>
+      <c r="B456" s="0" t="inlineStr">
+        <is>
+          <t>Vice Provost Graduate Studies</t>
+        </is>
+      </c>
+      <c r="C456" s="0" t="inlineStr">
+        <is>
+          <t>Vice Provost Graduate Studies</t>
+        </is>
+      </c>
+      <c r="D456" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="457">
+      <c r="A457" s="0">
+        <v>455</v>
+      </c>
+      <c r="B457" s="0" t="inlineStr">
+        <is>
+          <t>Visit Assist Professor</t>
+        </is>
+      </c>
+      <c r="C457" s="0" t="inlineStr">
+        <is>
+          <t>Visit Assist Professor</t>
+        </is>
+      </c>
+      <c r="D457" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="458">
+      <c r="A458" s="0">
+        <v>456</v>
+      </c>
+      <c r="B458" s="0" t="inlineStr">
+        <is>
+          <t>Visit Assistant Professor</t>
+        </is>
+      </c>
+      <c r="C458" s="0" t="inlineStr">
+        <is>
+          <t>Visit Assistant Professor</t>
+        </is>
+      </c>
+      <c r="D458" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="459">
+      <c r="A459" s="0">
+        <v>457</v>
+      </c>
+      <c r="B459" s="0" t="inlineStr">
+        <is>
+          <t>Visit Assoc Professor</t>
+        </is>
+      </c>
+      <c r="C459" s="0" t="inlineStr">
+        <is>
+          <t>Visit Assoc Professor</t>
+        </is>
+      </c>
+      <c r="D459" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="460">
+      <c r="A460" s="0">
+        <v>458</v>
+      </c>
+      <c r="B460" s="0" t="inlineStr">
+        <is>
+          <t>Visit Associate Professor</t>
+        </is>
+      </c>
+      <c r="C460" s="0" t="inlineStr">
+        <is>
+          <t>Visit Associate Professor</t>
+        </is>
+      </c>
+      <c r="D460" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="461">
+      <c r="A461" s="0">
+        <v>459</v>
+      </c>
+      <c r="B461" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assis Professor</t>
+        </is>
+      </c>
+      <c r="C461" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assis Professor</t>
+        </is>
+      </c>
+      <c r="D461" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="462">
+      <c r="A462" s="0">
+        <v>460</v>
+      </c>
+      <c r="B462" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assist Professor</t>
+        </is>
+      </c>
+      <c r="C462" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assist Professor</t>
+        </is>
+      </c>
+      <c r="D462" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="463">
+      <c r="A463" s="0">
+        <v>461</v>
+      </c>
+      <c r="B463" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assistant Professor</t>
+        </is>
+      </c>
+      <c r="C463" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assistant Professor</t>
+        </is>
+      </c>
+      <c r="D463" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="464">
+      <c r="A464" s="0">
+        <v>462</v>
+      </c>
+      <c r="B464" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assit Professor</t>
+        </is>
+      </c>
+      <c r="C464" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assit Professor</t>
+        </is>
+      </c>
+      <c r="D464" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="465">
+      <c r="A465" s="0">
+        <v>463</v>
+      </c>
+      <c r="B465" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assit. Professor</t>
+        </is>
+      </c>
+      <c r="C465" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assit. Professor</t>
+        </is>
+      </c>
+      <c r="D465" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="466">
+      <c r="A466" s="0">
+        <v>464</v>
+      </c>
+      <c r="B466" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assoc Professor</t>
+        </is>
+      </c>
+      <c r="C466" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Assoc Professor</t>
+        </is>
+      </c>
+      <c r="D466" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="467">
+      <c r="A467" s="0">
+        <v>465</v>
+      </c>
+      <c r="B467" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Associ Professor</t>
+        </is>
+      </c>
+      <c r="C467" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Associ Professor</t>
+        </is>
+      </c>
+      <c r="D467" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="468">
+      <c r="A468" s="0">
+        <v>466</v>
+      </c>
+      <c r="B468" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Asst Professor</t>
+        </is>
+      </c>
+      <c r="C468" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Asst Professor</t>
+        </is>
+      </c>
+      <c r="D468" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="469">
+      <c r="A469" s="0">
+        <v>467</v>
+      </c>
+      <c r="B469" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Asst. Professor</t>
+        </is>
+      </c>
+      <c r="C469" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Asst. Professor</t>
+        </is>
+      </c>
+      <c r="D469" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="470">
+      <c r="A470" s="0">
+        <v>468</v>
+      </c>
+      <c r="B470" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Extens. Professor</t>
+        </is>
+      </c>
+      <c r="C470" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Extens. Professor</t>
+        </is>
+      </c>
+      <c r="D470" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="471">
+      <c r="A471" s="0">
+        <v>469</v>
+      </c>
+      <c r="B471" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Instructor</t>
+        </is>
+      </c>
+      <c r="C471" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Instructor</t>
+        </is>
+      </c>
+      <c r="D471" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="472">
+      <c r="A472" s="0">
+        <v>470</v>
+      </c>
+      <c r="B472" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Lecturer</t>
+        </is>
+      </c>
+      <c r="C472" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Lecturer</t>
+        </is>
+      </c>
+      <c r="D472" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="473">
+      <c r="A473" s="0">
+        <v>471</v>
+      </c>
+      <c r="B473" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Professor</t>
+        </is>
+      </c>
+      <c r="C473" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Professor</t>
+        </is>
+      </c>
+      <c r="D473" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="474">
+      <c r="A474" s="0">
+        <v>472</v>
+      </c>
+      <c r="B474" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Research Scholar</t>
+        </is>
+      </c>
+      <c r="C474" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Research Scholar</t>
+        </is>
+      </c>
+      <c r="D474" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="475">
+      <c r="A475" s="0">
+        <v>473</v>
+      </c>
+      <c r="B475" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Senior Urban Planner</t>
+        </is>
+      </c>
+      <c r="C475" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Senior Urban Planner</t>
+        </is>
+      </c>
+      <c r="D475" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="476">
+      <c r="A476" s="0">
+        <v>474</v>
+      </c>
+      <c r="B476" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Snr Designer</t>
+        </is>
+      </c>
+      <c r="C476" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Snr Designer</t>
+        </is>
+      </c>
+      <c r="D476" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="477">
+      <c r="A477" s="0">
+        <v>475</v>
+      </c>
+      <c r="B477" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Sr. Lecturer</t>
+        </is>
+      </c>
+      <c r="C477" s="0" t="inlineStr">
+        <is>
+          <t>Visiting Sr. Lecturer</t>
+        </is>
+      </c>
+      <c r="D477" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="478">
+      <c r="A478" s="0">
+        <v>476</v>
+      </c>
+      <c r="B478" s="0" t="inlineStr">
+        <is>
+          <t>VisitingAssist Professor</t>
+        </is>
+      </c>
+      <c r="C478" s="0" t="inlineStr">
+        <is>
+          <t>VisitingAssist Professor</t>
+        </is>
+      </c>
+      <c r="D478" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="479">
+      <c r="A479" s="0">
+        <v>477</v>
+      </c>
+      <c r="B479" s="0" t="inlineStr">
+        <is>
+          <t>Vistg Professor</t>
+        </is>
+      </c>
+      <c r="C479" s="0" t="inlineStr">
+        <is>
+          <t>Vistg Professor</t>
+        </is>
+      </c>
+      <c r="D479" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="480">
+      <c r="A480" s="0">
+        <v>478</v>
+      </c>
+      <c r="B480" s="0" t="inlineStr">
+        <is>
           <t>Visting Professor</t>
         </is>
       </c>
-      <c r="C44" s="0" t="inlineStr">
+      <c r="C480" s="0" t="inlineStr">
         <is>
           <t>Visting Professor</t>
         </is>
       </c>
-      <c r="D44" s="0">
+      <c r="D480" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="481">
+      <c r="A481" s="0">
+        <v>479</v>
+      </c>
+      <c r="B481" s="0" t="inlineStr">
+        <is>
+          <t>Volleyball Coach</t>
+        </is>
+      </c>
+      <c r="C481" s="0" t="inlineStr">
+        <is>
+          <t>Volleyball Coach</t>
+        </is>
+      </c>
+      <c r="D481" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="482">
+      <c r="A482" s="0">
+        <v>480</v>
+      </c>
+      <c r="B482" s="0" t="inlineStr">
+        <is>
+          <t>Web Coordinator</t>
+        </is>
+      </c>
+      <c r="C482" s="0" t="inlineStr">
+        <is>
+          <t>Web Coordinator</t>
+        </is>
+      </c>
+      <c r="D482" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="483">
+      <c r="A483" s="0">
+        <v>481</v>
+      </c>
+      <c r="B483" s="0" t="inlineStr">
+        <is>
+          <t>Web Developer I</t>
+        </is>
+      </c>
+      <c r="C483" s="0" t="inlineStr">
+        <is>
+          <t>Web Developer I</t>
+        </is>
+      </c>
+      <c r="D483" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="484">
+      <c r="A484" s="0">
+        <v>482</v>
+      </c>
+      <c r="B484" s="0" t="inlineStr">
+        <is>
+          <t>Web Master</t>
+        </is>
+      </c>
+      <c r="C484" s="0" t="inlineStr">
+        <is>
+          <t>Web Master</t>
+        </is>
+      </c>
+      <c r="D484" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="485">
+      <c r="A485" s="0">
+        <v>483</v>
+      </c>
+      <c r="B485" s="0" t="inlineStr">
+        <is>
+          <t>Web Service Librarian</t>
+        </is>
+      </c>
+      <c r="C485" s="0" t="inlineStr">
+        <is>
+          <t>Web Service Librarian</t>
+        </is>
+      </c>
+      <c r="D485" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="486">
+      <c r="A486" s="0">
+        <v>484</v>
+      </c>
+      <c r="B486" s="0" t="inlineStr">
+        <is>
+          <t>Web Services Engineer</t>
+        </is>
+      </c>
+      <c r="C486" s="0" t="inlineStr">
+        <is>
+          <t>Web Services Engineer</t>
+        </is>
+      </c>
+      <c r="D486" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="487">
+      <c r="A487" s="0">
+        <v>485</v>
+      </c>
+      <c r="B487" s="0" t="inlineStr">
+        <is>
+          <t>Web Services Librarian</t>
+        </is>
+      </c>
+      <c r="C487" s="0" t="inlineStr">
+        <is>
+          <t>Web Services Librarian</t>
+        </is>
+      </c>
+      <c r="D487" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="488">
+      <c r="A488" s="0">
+        <v>486</v>
+      </c>
+      <c r="B488" s="0" t="inlineStr">
+        <is>
+          <t>Wellness Coach</t>
+        </is>
+      </c>
+      <c r="C488" s="0" t="inlineStr">
+        <is>
+          <t>Wellness Coach</t>
+        </is>
+      </c>
+      <c r="D488" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="489">
+      <c r="A489" s="0">
+        <v>487</v>
+      </c>
+      <c r="B489" s="0" t="inlineStr">
+        <is>
+          <t>Women's Volleyball Coach</t>
+        </is>
+      </c>
+      <c r="C489" s="0" t="inlineStr">
+        <is>
+          <t>Women's Volleyball Coach</t>
+        </is>
+      </c>
+      <c r="D489" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="490">
+      <c r="A490" s="0">
+        <v>488</v>
+      </c>
+      <c r="B490" s="0" t="inlineStr">
+        <is>
+          <t>Writer</t>
+        </is>
+      </c>
+      <c r="C490" s="0" t="inlineStr">
+        <is>
+          <t>Writer</t>
+        </is>
+      </c>
+      <c r="D490" s="0">
         <v>1</v>
       </c>
     </row>
